--- a/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>REDEMPTIONS REPORT</t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>01-Jul-2023 To 03-Jun-2024</t>
+    <t>01-Jul-2023 To 22-Jun-2024</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL FACE VALUE: </t>
@@ -83,25 +83,436 @@
     <t>Statement Amt</t>
   </si>
   <si>
+    <t>Harpenden Common Golf Club- PGA Pro Rob Leonard</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>EP0130108000000100</t>
+  </si>
+  <si>
+    <t>1138464127</t>
+  </si>
+  <si>
+    <t>GCP0000145</t>
+  </si>
+  <si>
+    <t>Golf Gift Card</t>
+  </si>
+  <si>
+    <t>EP0130108000000120</t>
+  </si>
+  <si>
+    <t>1159243156</t>
+  </si>
+  <si>
+    <t>Chippenham Golf Club- PGA Pro Ben Lloyd</t>
+  </si>
+  <si>
+    <t>EP0140108000000108</t>
+  </si>
+  <si>
+    <t>1166886235</t>
+  </si>
+  <si>
+    <t>EP0130108000000164</t>
+  </si>
+  <si>
+    <t>1172545209</t>
+  </si>
+  <si>
+    <t>Mark Nelson Golf -PGA Pro Mark Nelson</t>
+  </si>
+  <si>
+    <t>EP0130108000000168</t>
+  </si>
+  <si>
+    <t>1176772012</t>
+  </si>
+  <si>
+    <t>Styal Golf Club -PGA Pro Sammy Jaafari</t>
+  </si>
+  <si>
+    <t>EP0140108000000144</t>
+  </si>
+  <si>
+    <t>1150547658</t>
+  </si>
+  <si>
+    <t>Wishaw Golf Club- PGA Pro David Park</t>
+  </si>
+  <si>
+    <t>EP0130108000000175</t>
+  </si>
+  <si>
+    <t>1175042292</t>
+  </si>
+  <si>
+    <t>Dunnikier Park Golf Club</t>
+  </si>
+  <si>
+    <t>EP0140108000000151</t>
+  </si>
+  <si>
+    <t>1116299488</t>
+  </si>
+  <si>
+    <t>Beedles Lake Golf Club- PGA Pro Sean Byrne</t>
+  </si>
+  <si>
+    <t>EP0130108000000195</t>
+  </si>
+  <si>
+    <t>1179236414</t>
+  </si>
+  <si>
+    <t>Morpeth Golf Club- PGA Pro David Clarke</t>
+  </si>
+  <si>
+    <t>EP0140108000000200</t>
+  </si>
+  <si>
+    <t>1211792682</t>
+  </si>
+  <si>
+    <t>Shirehampton Park Golf Club- PGA Pro Jon Palmer</t>
+  </si>
+  <si>
+    <t>EP0130108000000239</t>
+  </si>
+  <si>
+    <t>1213328455</t>
+  </si>
+  <si>
+    <t>Lancashire Golf Academy</t>
+  </si>
+  <si>
+    <t>EP0140108000000208</t>
+  </si>
+  <si>
+    <t>1215631430</t>
+  </si>
+  <si>
+    <t>Paul McKay Golf Coaching -PGA Pro Paul McKay</t>
+  </si>
+  <si>
+    <t>EP0140108000000214</t>
+  </si>
+  <si>
+    <t>1175037903</t>
+  </si>
+  <si>
+    <t>Reserved 512</t>
+  </si>
+  <si>
+    <t>EP0130108000000255</t>
+  </si>
+  <si>
+    <t>1234826842</t>
+  </si>
+  <si>
+    <t>EP0140108000000237</t>
+  </si>
+  <si>
+    <t>1234981654</t>
+  </si>
+  <si>
+    <t>Wellingborough Golf Club- PGA Pro James Whittemore</t>
+  </si>
+  <si>
+    <t>EP0140108000000242</t>
+  </si>
+  <si>
+    <t>1239348762</t>
+  </si>
+  <si>
+    <t>EP0140108000000246</t>
+  </si>
+  <si>
+    <t>1239379637</t>
+  </si>
+  <si>
+    <t>Blyth Golf Club- PGA Pro Ross Crowe</t>
+  </si>
+  <si>
+    <t>EP0130108000000276</t>
+  </si>
+  <si>
+    <t>1213151500</t>
+  </si>
+  <si>
+    <t>EP0130108000000277</t>
+  </si>
+  <si>
+    <t>1212914862</t>
+  </si>
+  <si>
+    <t>EP0130108000000281</t>
+  </si>
+  <si>
+    <t>1245012618</t>
+  </si>
+  <si>
+    <t>EP0130108000000286</t>
+  </si>
+  <si>
+    <t>1245004332</t>
+  </si>
+  <si>
+    <t>EP0130108000000290</t>
+  </si>
+  <si>
+    <t>1244995891</t>
+  </si>
+  <si>
+    <t>Brentwood Golf Club- PGA Pro Paul Eady</t>
+  </si>
+  <si>
+    <t>EP0140108000000251</t>
+  </si>
+  <si>
+    <t>1175042011</t>
+  </si>
+  <si>
+    <t>EP0140108000000257</t>
+  </si>
+  <si>
+    <t>1246000370</t>
+  </si>
+  <si>
+    <t>Risebridge Golf Club</t>
+  </si>
+  <si>
+    <t>EP0130108000000300</t>
+  </si>
+  <si>
+    <t>1209785809</t>
+  </si>
+  <si>
+    <t>EP0130108000000313</t>
+  </si>
+  <si>
+    <t>1247072370</t>
+  </si>
+  <si>
+    <t>EP0130108000000314</t>
+  </si>
+  <si>
+    <t>1247072372</t>
+  </si>
+  <si>
+    <t>Lewis Parker Golf- PGA Pro Lewis Parker</t>
+  </si>
+  <si>
+    <t>EP0130108000000318</t>
+  </si>
+  <si>
+    <t>1247323152</t>
+  </si>
+  <si>
+    <t>Blackwater Valley Golf centre- PGA Pro Wayne Owers</t>
+  </si>
+  <si>
+    <t>EP0130108000000329</t>
+  </si>
+  <si>
+    <t>1163707084</t>
+  </si>
+  <si>
     <t>Davyhulme Park Golf Club - PGA Pro Martyn Hamer</t>
   </si>
   <si>
-    <t>M41 8SA</t>
-  </si>
-  <si>
     <t>EP0140108000000279</t>
   </si>
   <si>
     <t>1176005875</t>
   </si>
   <si>
-    <t>GCP000012</t>
+    <t>EP0140108000000284</t>
+  </si>
+  <si>
+    <t>1248263333</t>
+  </si>
+  <si>
+    <t>EP0140108000000288</t>
+  </si>
+  <si>
+    <t>1159178643</t>
+  </si>
+  <si>
+    <t>EP0140108000000292</t>
+  </si>
+  <si>
+    <t>1249896873</t>
+  </si>
+  <si>
+    <t>EP0140108000000307</t>
+  </si>
+  <si>
+    <t>EP0130108000000367</t>
+  </si>
+  <si>
+    <t>1133222669</t>
+  </si>
+  <si>
+    <t>EP0140108000000315</t>
+  </si>
+  <si>
+    <t>1251459552</t>
+  </si>
+  <si>
+    <t>EP0140108000000319</t>
+  </si>
+  <si>
+    <t>1251465940</t>
+  </si>
+  <si>
+    <t>EP0140108000000323</t>
+  </si>
+  <si>
+    <t>1251465943</t>
+  </si>
+  <si>
+    <t>Lexden Wood Golf Club- PGA Pro Jack Blackman</t>
+  </si>
+  <si>
+    <t>EP0130108000000376</t>
+  </si>
+  <si>
+    <t>1251087435</t>
+  </si>
+  <si>
+    <t>Fleetwood Golf Club- PGA Pro Dan Skelcher</t>
+  </si>
+  <si>
+    <t>EP0130108000000387</t>
+  </si>
+  <si>
+    <t>1249050891</t>
+  </si>
+  <si>
+    <t>EP0130108000000391</t>
+  </si>
+  <si>
+    <t>1251082745</t>
+  </si>
+  <si>
+    <t>EP0130108000000395</t>
+  </si>
+  <si>
+    <t>1251082715</t>
+  </si>
+  <si>
+    <t>EP0130108000000399</t>
+  </si>
+  <si>
+    <t>1250927473</t>
+  </si>
+  <si>
+    <t>EP0130108000000403</t>
+  </si>
+  <si>
+    <t>1250927545</t>
+  </si>
+  <si>
+    <t>EP0130108000000407</t>
+  </si>
+  <si>
+    <t>1250182620</t>
+  </si>
+  <si>
+    <t>EP0130108000000411</t>
+  </si>
+  <si>
+    <t>1250183598</t>
+  </si>
+  <si>
+    <t>EP0130108000000415</t>
+  </si>
+  <si>
+    <t>1249050937</t>
+  </si>
+  <si>
+    <t>EP0140108000000354</t>
+  </si>
+  <si>
+    <t>1205381053</t>
+  </si>
+  <si>
+    <t>EP0140108000000358</t>
+  </si>
+  <si>
+    <t>1205381016</t>
+  </si>
+  <si>
+    <t>EP0130108000000419</t>
+  </si>
+  <si>
+    <t>1251310970</t>
+  </si>
+  <si>
+    <t>EP0140108000000367</t>
+  </si>
+  <si>
+    <t>1249136676</t>
+  </si>
+  <si>
+    <t>Downfield Golf Club- PGA Pro Barry Smith</t>
+  </si>
+  <si>
+    <t>EP0130108000000446</t>
+  </si>
+  <si>
+    <t>1251450464</t>
+  </si>
+  <si>
+    <t>Sand Moor Golf Club- PGA Pro Alex James</t>
+  </si>
+  <si>
+    <t>EP0140108000000378</t>
+  </si>
+  <si>
+    <t>1172960041</t>
+  </si>
+  <si>
+    <t>EP0140108000000388</t>
+  </si>
+  <si>
+    <t>1260077993</t>
+  </si>
+  <si>
+    <t>EP0130108000000455</t>
+  </si>
+  <si>
+    <t>1259306485</t>
+  </si>
+  <si>
+    <t>Dinsdale Golf Club- PGA Pro Ashley Jones</t>
+  </si>
+  <si>
+    <t>EP0140108000000405</t>
+  </si>
+  <si>
+    <t>1251468564</t>
+  </si>
+  <si>
+    <t>Melville Golf Centre - PGA Pro Alastair Macfarlane</t>
+  </si>
+  <si>
+    <t>EP0130108000000462</t>
+  </si>
+  <si>
+    <t>1170348966</t>
   </si>
   <si>
     <t>Shrewsbury Driving Range- PGA Pro Phil Toomer</t>
   </si>
   <si>
-    <t>SY2 5XQ</t>
+    <t>EP0130108000000472</t>
+  </si>
+  <si>
+    <t>1262780640</t>
   </si>
   <si>
     <t>EP0130108000000473</t>
@@ -110,637 +521,37 @@
     <t>1262780652</t>
   </si>
   <si>
-    <t>GCP000030</t>
-  </si>
-  <si>
-    <t>EP0130108000000472</t>
-  </si>
-  <si>
-    <t>1262780640</t>
-  </si>
-  <si>
-    <t>Blackwater Valley Golf centre- PGA Pro Wayne Owers</t>
-  </si>
-  <si>
-    <t>GU467SZ</t>
-  </si>
-  <si>
-    <t>EP0130108000000329</t>
-  </si>
-  <si>
-    <t>1163707084</t>
-  </si>
-  <si>
-    <t>GCP000008</t>
-  </si>
-  <si>
-    <t>Styal Golf Club -PGA Pro Sammy Jaafari</t>
-  </si>
-  <si>
-    <t>SK9 4JN</t>
-  </si>
-  <si>
-    <t>EP0140108000000144</t>
-  </si>
-  <si>
-    <t>1150547658</t>
-  </si>
-  <si>
-    <t>GCP000015</t>
-  </si>
-  <si>
-    <t>Lewis Parker Golf- PGA Pro Lewis Parker</t>
-  </si>
-  <si>
-    <t>RH10 3GG</t>
-  </si>
-  <si>
-    <t>EP0130108000000318</t>
-  </si>
-  <si>
-    <t>1247323152</t>
-  </si>
-  <si>
-    <t>GCP000013</t>
-  </si>
-  <si>
-    <t>Lancashire Golf Academy</t>
-  </si>
-  <si>
-    <t>BB1 9LF</t>
-  </si>
-  <si>
-    <t>EP0140108000000208</t>
-  </si>
-  <si>
-    <t>1215631430</t>
-  </si>
-  <si>
-    <t>GCP000019</t>
-  </si>
-  <si>
-    <t>Mark Nelson Golf -PGA Pro Mark Nelson</t>
-  </si>
-  <si>
-    <t>WR9 0LE</t>
-  </si>
-  <si>
-    <t>EP0130108000000168</t>
-  </si>
-  <si>
-    <t>1176772012</t>
-  </si>
-  <si>
-    <t>GCP000017</t>
-  </si>
-  <si>
-    <t>Melville Golf Centre - PGA Pro Alastair Macfarlane</t>
-  </si>
-  <si>
-    <t>EH18 1AN</t>
-  </si>
-  <si>
-    <t>EP0130108000000462</t>
-  </si>
-  <si>
-    <t>1170348966</t>
-  </si>
-  <si>
-    <t>GCP000029</t>
+    <t>The Worcestershire Golf Club- PGA Head Pro Dan Yat</t>
+  </si>
+  <si>
+    <t>EP0130108000000491</t>
+  </si>
+  <si>
+    <t>1253288575</t>
+  </si>
+  <si>
+    <t>EP0140108000000453</t>
+  </si>
+  <si>
+    <t>1265352612</t>
+  </si>
+  <si>
+    <t>Reuben Club</t>
+  </si>
+  <si>
+    <t>EP0140108000000457</t>
+  </si>
+  <si>
+    <t>EP0140108000000476</t>
+  </si>
+  <si>
+    <t>1251506861</t>
   </si>
   <si>
     <t>EP0140108000000486</t>
   </si>
   <si>
     <t>1266113218</t>
-  </si>
-  <si>
-    <t>GCP000033</t>
-  </si>
-  <si>
-    <t>Sand Moor Golf Club- PGA Pro Alex James</t>
-  </si>
-  <si>
-    <t>LS17 7DJ</t>
-  </si>
-  <si>
-    <t>EP0140108000000476</t>
-  </si>
-  <si>
-    <t>1251506861</t>
-  </si>
-  <si>
-    <t>GCP000032</t>
-  </si>
-  <si>
-    <t>Reuben Club</t>
-  </si>
-  <si>
-    <t>SN67AH</t>
-  </si>
-  <si>
-    <t>EP0140108000000457</t>
-  </si>
-  <si>
-    <t>1265352612</t>
-  </si>
-  <si>
-    <t>Golf Gift Card</t>
-  </si>
-  <si>
-    <t>IP1 1RJ</t>
-  </si>
-  <si>
-    <t>EP0140108000000453</t>
-  </si>
-  <si>
-    <t>The Worcestershire Golf Club- PGA Head Pro Dan Yat</t>
-  </si>
-  <si>
-    <t>WR14 4PP</t>
-  </si>
-  <si>
-    <t>EP0130108000000491</t>
-  </si>
-  <si>
-    <t>1253288575</t>
-  </si>
-  <si>
-    <t>GCP000031</t>
-  </si>
-  <si>
-    <t>Dinsdale Golf Club- PGA Pro Ashley Jones</t>
-  </si>
-  <si>
-    <t>DL2 1DW</t>
-  </si>
-  <si>
-    <t>EP0140108000000405</t>
-  </si>
-  <si>
-    <t>1251468564</t>
-  </si>
-  <si>
-    <t>GCP000027</t>
-  </si>
-  <si>
-    <t>EP0130108000000455</t>
-  </si>
-  <si>
-    <t>1259306485</t>
-  </si>
-  <si>
-    <t>GCP000028</t>
-  </si>
-  <si>
-    <t>Brentwood Golf Club- PGA Pro Paul Eady</t>
-  </si>
-  <si>
-    <t>CM14 5RJ</t>
-  </si>
-  <si>
-    <t>EP0130108000000314</t>
-  </si>
-  <si>
-    <t>1247072372</t>
-  </si>
-  <si>
-    <t>GCP000004</t>
-  </si>
-  <si>
-    <t>EP0130108000000313</t>
-  </si>
-  <si>
-    <t>1247072370</t>
-  </si>
-  <si>
-    <t>EP0140108000000378</t>
-  </si>
-  <si>
-    <t>1172960041</t>
-  </si>
-  <si>
-    <t>GCP000025</t>
-  </si>
-  <si>
-    <t>Downfield Golf Club- PGA Pro Barry Smith</t>
-  </si>
-  <si>
-    <t>DD2 3QP</t>
-  </si>
-  <si>
-    <t>EP0130108000000446</t>
-  </si>
-  <si>
-    <t>1251450464</t>
-  </si>
-  <si>
-    <t>GCP000026</t>
-  </si>
-  <si>
-    <t>EP0140108000000367</t>
-  </si>
-  <si>
-    <t>1249136676</t>
-  </si>
-  <si>
-    <t>GCP000024</t>
-  </si>
-  <si>
-    <t>EP0130108000000419</t>
-  </si>
-  <si>
-    <t>1251310970</t>
-  </si>
-  <si>
-    <t>Fleetwood Golf Club- PGA Pro Dan Skelcher</t>
-  </si>
-  <si>
-    <t>FY7 8AF</t>
-  </si>
-  <si>
-    <t>EP0140108000000358</t>
-  </si>
-  <si>
-    <t>1205381016</t>
-  </si>
-  <si>
-    <t>GCP000023</t>
-  </si>
-  <si>
-    <t>EP0140108000000354</t>
-  </si>
-  <si>
-    <t>1205381053</t>
-  </si>
-  <si>
-    <t>EP0130108000000415</t>
-  </si>
-  <si>
-    <t>1249050937</t>
-  </si>
-  <si>
-    <t>EP0130108000000411</t>
-  </si>
-  <si>
-    <t>1250183598</t>
-  </si>
-  <si>
-    <t>EP0130108000000407</t>
-  </si>
-  <si>
-    <t>1250182620</t>
-  </si>
-  <si>
-    <t>EP0130108000000403</t>
-  </si>
-  <si>
-    <t>1250927545</t>
-  </si>
-  <si>
-    <t>EP0130108000000399</t>
-  </si>
-  <si>
-    <t>1250927473</t>
-  </si>
-  <si>
-    <t>EP0130108000000395</t>
-  </si>
-  <si>
-    <t>1251082715</t>
-  </si>
-  <si>
-    <t>EP0130108000000391</t>
-  </si>
-  <si>
-    <t>1251082745</t>
-  </si>
-  <si>
-    <t>EP0130108000000387</t>
-  </si>
-  <si>
-    <t>1249050891</t>
-  </si>
-  <si>
-    <t>Lexden Wood Golf Club- PGA Pro Jack Blackman</t>
-  </si>
-  <si>
-    <t>CO3 4AU</t>
-  </si>
-  <si>
-    <t>EP0130108000000376</t>
-  </si>
-  <si>
-    <t>1251087435</t>
-  </si>
-  <si>
-    <t>EP0140108000000323</t>
-  </si>
-  <si>
-    <t>1251465943</t>
-  </si>
-  <si>
-    <t>GCP000022</t>
-  </si>
-  <si>
-    <t>EP0140108000000319</t>
-  </si>
-  <si>
-    <t>1251465940</t>
-  </si>
-  <si>
-    <t>EP0140108000000315</t>
-  </si>
-  <si>
-    <t>1251459552</t>
-  </si>
-  <si>
-    <t>EP0130108000000367</t>
-  </si>
-  <si>
-    <t>1133222669</t>
-  </si>
-  <si>
-    <t>EP0140108000000307</t>
-  </si>
-  <si>
-    <t>GCP000020</t>
-  </si>
-  <si>
-    <t>EP0140108000000292</t>
-  </si>
-  <si>
-    <t>1249896873</t>
-  </si>
-  <si>
-    <t>Dunnikier Park Golf Club</t>
-  </si>
-  <si>
-    <t>KY1 3LP</t>
-  </si>
-  <si>
-    <t>EP0140108000000288</t>
-  </si>
-  <si>
-    <t>1159178643</t>
-  </si>
-  <si>
-    <t>GCP000021</t>
-  </si>
-  <si>
-    <t>EP0140108000000284</t>
-  </si>
-  <si>
-    <t>1248263333</t>
-  </si>
-  <si>
-    <t>EP0140108000000388</t>
-  </si>
-  <si>
-    <t>1260077993</t>
-  </si>
-  <si>
-    <t>Reserved 512</t>
-  </si>
-  <si>
-    <t>UB95DE</t>
-  </si>
-  <si>
-    <t>EP0140108000000257</t>
-  </si>
-  <si>
-    <t>1246000370</t>
-  </si>
-  <si>
-    <t>GCP000018</t>
-  </si>
-  <si>
-    <t>EP0140108000000251</t>
-  </si>
-  <si>
-    <t>1175042011</t>
-  </si>
-  <si>
-    <t>Wishaw Golf Club- PGA Pro David Park</t>
-  </si>
-  <si>
-    <t>ML2 7PH</t>
-  </si>
-  <si>
-    <t>EP0130108000000290</t>
-  </si>
-  <si>
-    <t>1244995891</t>
-  </si>
-  <si>
-    <t>GCP000009</t>
-  </si>
-  <si>
-    <t>EP0130108000000286</t>
-  </si>
-  <si>
-    <t>1245004332</t>
-  </si>
-  <si>
-    <t>EP0130108000000281</t>
-  </si>
-  <si>
-    <t>1245012618</t>
-  </si>
-  <si>
-    <t>Blyth Golf Club- PGA Pro Ross Crowe</t>
-  </si>
-  <si>
-    <t>NE24 4DB</t>
-  </si>
-  <si>
-    <t>EP0130108000000277</t>
-  </si>
-  <si>
-    <t>1212914862</t>
-  </si>
-  <si>
-    <t>GCP000002</t>
-  </si>
-  <si>
-    <t>EP0130108000000276</t>
-  </si>
-  <si>
-    <t>1213151500</t>
-  </si>
-  <si>
-    <t>Wellingborough Golf Club- PGA Pro James Whittemore</t>
-  </si>
-  <si>
-    <t>NN9 5AD</t>
-  </si>
-  <si>
-    <t>EP0140108000000246</t>
-  </si>
-  <si>
-    <t>1239379637</t>
-  </si>
-  <si>
-    <t>GCP000014</t>
-  </si>
-  <si>
-    <t>EP0140108000000242</t>
-  </si>
-  <si>
-    <t>1239348762</t>
-  </si>
-  <si>
-    <t>EP0140108000000237</t>
-  </si>
-  <si>
-    <t>1234981654</t>
-  </si>
-  <si>
-    <t>EP0130108000000255</t>
-  </si>
-  <si>
-    <t>1234826842</t>
-  </si>
-  <si>
-    <t>Paul McKay Golf Coaching -PGA Pro Paul McKay</t>
-  </si>
-  <si>
-    <t>ML10 6GH</t>
-  </si>
-  <si>
-    <t>EP0140108000000214</t>
-  </si>
-  <si>
-    <t>1175037903</t>
-  </si>
-  <si>
-    <t>GCP000016</t>
-  </si>
-  <si>
-    <t>EP0130108000000525</t>
-  </si>
-  <si>
-    <t>1241458099</t>
-  </si>
-  <si>
-    <t>GCP000034</t>
-  </si>
-  <si>
-    <t>EP0130108000000164</t>
-  </si>
-  <si>
-    <t>1172545209</t>
-  </si>
-  <si>
-    <t>Shirehampton Park Golf Club- PGA Pro Jon Palmer</t>
-  </si>
-  <si>
-    <t>BS11 0UL</t>
-  </si>
-  <si>
-    <t>EP0130108000000239</t>
-  </si>
-  <si>
-    <t>1213328455</t>
-  </si>
-  <si>
-    <t>GCP000010</t>
-  </si>
-  <si>
-    <t>Morpeth Golf Club- PGA Pro David Clarke</t>
-  </si>
-  <si>
-    <t>NE61 2BT</t>
-  </si>
-  <si>
-    <t>EP0140108000000200</t>
-  </si>
-  <si>
-    <t>1211792682</t>
-  </si>
-  <si>
-    <t>GCP000001</t>
-  </si>
-  <si>
-    <t>Risebridge Golf Club</t>
-  </si>
-  <si>
-    <t>RM1 4PR</t>
-  </si>
-  <si>
-    <t>EP0130108000000300</t>
-  </si>
-  <si>
-    <t>1209785809</t>
-  </si>
-  <si>
-    <t>GCP000005</t>
-  </si>
-  <si>
-    <t>Beedles Lake Golf Club- PGA Pro Sean Byrne</t>
-  </si>
-  <si>
-    <t>LE7 3WQ</t>
-  </si>
-  <si>
-    <t>EP0130108000000195</t>
-  </si>
-  <si>
-    <t>1179236414</t>
-  </si>
-  <si>
-    <t>GCP000011</t>
-  </si>
-  <si>
-    <t>EP0140108000000151</t>
-  </si>
-  <si>
-    <t>1116299488</t>
-  </si>
-  <si>
-    <t>GCP000006</t>
-  </si>
-  <si>
-    <t>EP0130108000000175</t>
-  </si>
-  <si>
-    <t>1175042292</t>
-  </si>
-  <si>
-    <t>EP0130108000000120</t>
-  </si>
-  <si>
-    <t>1159243156</t>
-  </si>
-  <si>
-    <t>Chippenham Golf Club- PGA Pro Ben Lloyd</t>
-  </si>
-  <si>
-    <t>SN15 5LT</t>
-  </si>
-  <si>
-    <t>EP0140108000000108</t>
-  </si>
-  <si>
-    <t>1166886235</t>
-  </si>
-  <si>
-    <t>GCP000007</t>
-  </si>
-  <si>
-    <t>Harpenden Common Golf Club- PGA Pro Rob Leonard</t>
-  </si>
-  <si>
-    <t>AL5 1BL</t>
-  </si>
-  <si>
-    <t>EP0130108000000100</t>
-  </si>
-  <si>
-    <t>1138464127</t>
-  </si>
-  <si>
-    <t>GCP000003</t>
   </si>
   <si>
     <t>Totals</t>
@@ -816,8 +627,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:N74" headerRowCount="1">
-  <autoFilter ref="A7:N74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:N73" headerRowCount="1">
+  <autoFilter ref="A7:N73"/>
   <tableColumns count="14">
     <tableColumn id="1" name="TransactionDateTime"/>
     <tableColumn id="2" name="Value"/>
@@ -841,7 +652,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" state="frozen" activePane="bottomLeft"/>
@@ -854,7 +665,7 @@
     <col min="2" max="2" width="30.771818161010742" customWidth="1"/>
     <col min="3" max="3" width="27.384668350219727" customWidth="1"/>
     <col min="4" max="4" width="16.294299125671387" customWidth="1"/>
-    <col min="5" max="5" width="13.301553726196289" customWidth="1"/>
+    <col min="5" max="5" width="12.20789623260498" customWidth="1"/>
     <col min="6" max="6" width="17.799227714538574" customWidth="1"/>
     <col min="7" max="7" width="10.799415588378906" customWidth="1"/>
     <col min="8" max="8" width="48.77941131591797" customWidth="1"/>
@@ -900,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="6">
-        <v>-7283</v>
+        <v>-7208</v>
       </c>
     </row>
     <row r="6">
@@ -908,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="6">
-        <v>-6146.852</v>
+        <v>-3055.28</v>
       </c>
     </row>
     <row r="7">
@@ -957,25 +768,25 @@
     </row>
     <row r="8">
       <c r="A8" s="7">
-        <v>45630.62788194444</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B8" s="4">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="C8" s="0">
         <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>-13</v>
+        <v>-26</v>
       </c>
       <c r="E8" s="4">
-        <v>-2.6</v>
+        <v>-5.2</v>
       </c>
       <c r="F8" s="4">
-        <v>-84.4</v>
+        <v>-168.8</v>
       </c>
       <c r="G8" s="0">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>23</v>
@@ -990,62 +801,62 @@
         <v>26</v>
       </c>
       <c r="L8" s="8">
-        <v>45407</v>
+        <v>45465.63390300926</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>27</v>
       </c>
       <c r="N8" s="4">
-        <v>84.4</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7">
-        <v>45540.39938657408</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B9" s="4">
-        <v>-45</v>
+        <v>-250</v>
       </c>
       <c r="C9" s="0">
         <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>-5.85</v>
+        <v>-32.5</v>
       </c>
       <c r="E9" s="4">
-        <v>-1.17</v>
+        <v>-6.5</v>
       </c>
       <c r="F9" s="4">
-        <v>-37.98</v>
+        <v>-211</v>
       </c>
       <c r="G9" s="0">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="L9" s="8">
-        <v>45426</v>
+        <v>45465.633903043985</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N9" s="4">
-        <v>248.98</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7">
-        <v>45540.399375</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B10" s="4">
         <v>-250</v>
@@ -1063,467 +874,473 @@
         <v>-211</v>
       </c>
       <c r="G10" s="0">
-        <v>299</v>
+        <v>141</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="L10" s="8">
-        <v>45426</v>
+        <v>45465.633903043985</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N10" s="4">
-        <v>248.98</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7">
-        <v>45539.903275462966</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B11" s="4">
-        <v>-175</v>
+        <v>-50</v>
       </c>
       <c r="C11" s="0">
         <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>-22.75</v>
+        <v>-6.5</v>
       </c>
       <c r="E11" s="4">
-        <v>-4.55</v>
+        <v>-1.3</v>
       </c>
       <c r="F11" s="4">
-        <v>-147.7</v>
+        <v>-42.2</v>
       </c>
       <c r="G11" s="0">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="H11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="L11" s="8">
-        <v>45407</v>
+        <v>45465.633903043985</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N11" s="4">
-        <v>147.7</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7">
-        <v>45536.90069444444</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B12" s="4">
-        <v>-150</v>
+        <v>-200</v>
       </c>
       <c r="C12" s="0">
         <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>-19.5</v>
+        <v>-26</v>
       </c>
       <c r="E12" s="4">
-        <v>-3.9</v>
+        <v>-5.2</v>
       </c>
       <c r="F12" s="4">
-        <v>-126.6</v>
+        <v>-168.8</v>
       </c>
       <c r="G12" s="0">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L12" s="8">
-        <v>45407</v>
+        <v>45465.633903043985</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N12" s="4">
-        <v>126.6</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7">
-        <v>45508.840902777774</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B13" s="4">
-        <v>-100</v>
+        <v>-150</v>
       </c>
       <c r="C13" s="0">
         <v>1</v>
       </c>
       <c r="D13" s="4">
-        <v>-13</v>
+        <v>-19.5</v>
       </c>
       <c r="E13" s="4">
-        <v>-2.6</v>
+        <v>-3.9</v>
       </c>
       <c r="F13" s="4">
-        <v>-84.4</v>
+        <v>-126.6</v>
       </c>
       <c r="G13" s="0">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L13" s="8">
-        <v>45407</v>
+        <v>45465.633903043985</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="N13" s="4">
-        <v>168.8</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7">
-        <v>45507.451828703706</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B14" s="4">
-        <v>-175</v>
+        <v>-25</v>
       </c>
       <c r="C14" s="0">
         <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>-22.75</v>
+        <v>-3.25</v>
       </c>
       <c r="E14" s="4">
-        <v>-4.55</v>
+        <v>-0.65</v>
       </c>
       <c r="F14" s="4">
-        <v>-147.7</v>
+        <v>-21.1</v>
       </c>
       <c r="G14" s="0">
-        <v>388</v>
+        <v>200</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L14" s="8">
-        <v>45407</v>
+        <v>45465.633903090275</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="N14" s="4">
-        <v>232.1</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7">
-        <v>45505.410416666666</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B15" s="4">
-        <v>-200</v>
+        <v>-110</v>
       </c>
       <c r="C15" s="0">
         <v>1</v>
       </c>
       <c r="D15" s="4">
-        <v>-26</v>
+        <v>-14.3</v>
       </c>
       <c r="E15" s="4">
-        <v>-5.2</v>
+        <v>-2.86</v>
       </c>
       <c r="F15" s="4">
-        <v>-168.8</v>
+        <v>-92.84</v>
       </c>
       <c r="G15" s="0">
-        <v>374</v>
+        <v>89</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L15" s="8">
-        <v>45407</v>
+        <v>45465.633903090275</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N15" s="4">
-        <v>168.8</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7">
-        <v>45478.716469907406</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B16" s="4">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="C16" s="0">
         <v>1</v>
       </c>
       <c r="D16" s="4">
-        <v>-3.25</v>
+        <v>-5.2</v>
       </c>
       <c r="E16" s="4">
-        <v>-0.65</v>
+        <v>-1.04</v>
       </c>
       <c r="F16" s="4">
-        <v>-21.1</v>
+        <v>-33.76</v>
       </c>
       <c r="G16" s="0">
-        <v>403</v>
+        <v>248</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="L16" s="8">
-        <v>45426</v>
+        <v>45465.633903090275</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="N16" s="4">
-        <v>21.1</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7">
-        <v>45440.62006944444</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B17" s="4">
-        <v>-240</v>
+        <v>-250</v>
       </c>
       <c r="C17" s="0">
         <v>1</v>
       </c>
       <c r="D17" s="4">
-        <v>-31.2</v>
+        <v>-32.5</v>
       </c>
       <c r="E17" s="4">
-        <v>-6.24</v>
+        <v>-6.5</v>
       </c>
       <c r="F17" s="4">
-        <v>-202.56</v>
+        <v>-211</v>
       </c>
       <c r="G17" s="0">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="L17" s="8">
-        <v>45446</v>
+        <v>45465.633903090275</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="N17" s="4">
-        <v>202.56</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7">
-        <v>45440.57491898148</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B18" s="4">
-        <v>-100</v>
+        <v>-135</v>
       </c>
       <c r="C18" s="0">
         <v>1</v>
       </c>
       <c r="D18" s="4">
-        <v>-13</v>
+        <v>-17.55</v>
       </c>
       <c r="E18" s="4">
-        <v>-2.6</v>
+        <v>-3.51</v>
       </c>
       <c r="F18" s="4">
-        <v>-84.4</v>
+        <v>-113.94</v>
       </c>
       <c r="G18" s="0">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L18" s="8">
-        <v>45446</v>
+        <v>45465.633903090275</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="N18" s="4">
-        <v>84.4</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7">
-        <v>45434.82644675926</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B19" s="4">
-        <v>-3</v>
+        <v>-175</v>
       </c>
       <c r="C19" s="0">
         <v>1</v>
       </c>
       <c r="D19" s="4">
-        <v>-0.39</v>
+        <v>-22.75</v>
       </c>
       <c r="E19" s="4">
-        <v>-0.078</v>
+        <v>-4.55</v>
       </c>
       <c r="F19" s="4">
-        <v>-2.532</v>
+        <v>-147.7</v>
       </c>
       <c r="G19" s="0">
-        <v>2</v>
+        <v>388</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="L19" s="8">
-        <v>0</v>
+        <v>45465.633903090275</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="N19" s="4">
-        <v>0</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7">
-        <v>45434.716840277775</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B20" s="4">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="C20" s="0">
         <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>-1.3</v>
+        <v>-13</v>
       </c>
       <c r="E20" s="4">
-        <v>-0.26</v>
+        <v>-2.6</v>
       </c>
       <c r="F20" s="4">
-        <v>-8.44</v>
+        <v>-84.4</v>
       </c>
       <c r="G20" s="0">
-        <v>1</v>
+        <v>371</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="L20" s="8">
-        <v>0</v>
+        <v>45465.633903125</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="N20" s="4">
-        <v>0</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7">
-        <v>45427.3984375</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B21" s="4">
         <v>-50</v>
@@ -1541,253 +1358,253 @@
         <v>-42.2</v>
       </c>
       <c r="G21" s="0">
-        <v>231</v>
+        <v>512</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="L21" s="8">
-        <v>45432</v>
+        <v>45465.633903125</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="N21" s="4">
-        <v>42.2</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7">
-        <v>45417.71576388889</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B22" s="4">
-        <v>-30</v>
+        <v>-100</v>
       </c>
       <c r="C22" s="0">
         <v>1</v>
       </c>
       <c r="D22" s="4">
-        <v>-3.9</v>
+        <v>-13</v>
       </c>
       <c r="E22" s="4">
-        <v>-0.78</v>
+        <v>-2.6</v>
       </c>
       <c r="F22" s="4">
-        <v>-25.32</v>
+        <v>-84.4</v>
       </c>
       <c r="G22" s="0">
-        <v>268</v>
+        <v>388</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="L22" s="8">
-        <v>45419</v>
+        <v>45465.633903125</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="N22" s="4">
-        <v>25.32</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7">
-        <v>45417.49364583333</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B23" s="4">
-        <v>-200</v>
+        <v>-250</v>
       </c>
       <c r="C23" s="0">
         <v>1</v>
       </c>
       <c r="D23" s="4">
-        <v>-26</v>
+        <v>-32.5</v>
       </c>
       <c r="E23" s="4">
-        <v>-5.2</v>
+        <v>-6.5</v>
       </c>
       <c r="F23" s="4">
-        <v>-168.8</v>
+        <v>-211</v>
       </c>
       <c r="G23" s="0">
-        <v>388</v>
+        <v>279</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="L23" s="8">
-        <v>45419</v>
+        <v>45465.633903125</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="N23" s="4">
-        <v>168.8</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7">
-        <v>45416.82561342593</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B24" s="4">
-        <v>-200</v>
+        <v>-190</v>
       </c>
       <c r="C24" s="0">
         <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>-26</v>
+        <v>-24.7</v>
       </c>
       <c r="E24" s="4">
-        <v>-5.2</v>
+        <v>-4.94</v>
       </c>
       <c r="F24" s="4">
-        <v>-168.8</v>
+        <v>-160.36</v>
       </c>
       <c r="G24" s="0">
+        <v>279</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="K24" s="0" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="L24" s="8">
-        <v>45407</v>
+        <v>45465.633903125</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="N24" s="4">
-        <v>232.1</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7">
-        <v>45416.82560185185</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B25" s="4">
-        <v>-50</v>
+        <v>-250</v>
       </c>
       <c r="C25" s="0">
         <v>1</v>
       </c>
       <c r="D25" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E25" s="4">
         <v>-6.5</v>
       </c>
-      <c r="E25" s="4">
-        <v>-1.3</v>
-      </c>
       <c r="F25" s="4">
-        <v>-42.2</v>
+        <v>-211</v>
       </c>
       <c r="G25" s="0">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="L25" s="8">
-        <v>45407</v>
+        <v>45465.633903125</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="N25" s="4">
-        <v>232.1</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7">
-        <v>45411.594976851855</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B26" s="4">
-        <v>-75</v>
+        <v>-220</v>
       </c>
       <c r="C26" s="0">
         <v>1</v>
       </c>
       <c r="D26" s="4">
-        <v>-9.75</v>
+        <v>-28.6</v>
       </c>
       <c r="E26" s="4">
-        <v>-1.95</v>
+        <v>-5.72</v>
       </c>
       <c r="F26" s="4">
-        <v>-63.3</v>
+        <v>-185.68</v>
       </c>
       <c r="G26" s="0">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L26" s="8">
-        <v>45419</v>
+        <v>45465.633903125</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="N26" s="4">
-        <v>248.98</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7">
-        <v>45411.51733796296</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B27" s="4">
         <v>-250</v>
@@ -1796,130 +1613,130 @@
         <v>1</v>
       </c>
       <c r="D27" s="4">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="E27" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="F27" s="4">
-        <v>-211</v>
+        <v>0</v>
       </c>
       <c r="G27" s="0">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="L27" s="8">
-        <v>45419</v>
+        <v>45465.63390315972</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="N27" s="4">
-        <v>211</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7">
-        <v>45407.56542824074</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B28" s="4">
-        <v>-50</v>
+        <v>-250</v>
       </c>
       <c r="C28" s="0">
         <v>1</v>
       </c>
       <c r="D28" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="E28" s="4">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="4">
-        <v>-42.2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>388</v>
+        <v>200</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="L28" s="8">
-        <v>45412</v>
+        <v>45465.63390315972</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="N28" s="4">
-        <v>63.3</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7">
-        <v>45405.51136574074</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B29" s="4">
-        <v>-25</v>
+        <v>-250</v>
       </c>
       <c r="C29" s="0">
         <v>1</v>
       </c>
       <c r="D29" s="4">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="E29" s="4">
-        <v>-0.65</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0">
-        <v>388</v>
+        <v>200</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="L29" s="8">
-        <v>45412</v>
+        <v>45465.63390315972</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="N29" s="4">
-        <v>63.3</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7">
-        <v>45405.43412037037</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B30" s="4">
         <v>-25</v>
@@ -1937,385 +1754,385 @@
         <v>-21.1</v>
       </c>
       <c r="G30" s="0">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="L30" s="8">
-        <v>45415</v>
+        <v>45465.63390315972</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N30" s="4">
-        <v>211</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7">
-        <v>45405.43363425926</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B31" s="4">
-        <v>-25</v>
+        <v>-75</v>
       </c>
       <c r="C31" s="0">
         <v>1</v>
       </c>
       <c r="D31" s="4">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>-0.65</v>
+        <v>0</v>
       </c>
       <c r="F31" s="4">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="0">
-        <v>53</v>
+        <v>512</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="L31" s="8">
-        <v>45415</v>
+        <v>45465.63390315972</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N31" s="4">
-        <v>211</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7">
-        <v>45405.42738425926</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B32" s="4">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="C32" s="0">
         <v>1</v>
       </c>
       <c r="D32" s="4">
-        <v>-3.25</v>
+        <v>-13</v>
       </c>
       <c r="E32" s="4">
-        <v>-0.65</v>
+        <v>-2.6</v>
       </c>
       <c r="F32" s="4">
-        <v>-21.1</v>
+        <v>-84.4</v>
       </c>
       <c r="G32" s="0">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="L32" s="8">
-        <v>45415</v>
+        <v>45465.63390315972</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N32" s="4">
-        <v>211</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7">
-        <v>45405.42702546297</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B33" s="4">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="C33" s="0">
         <v>1</v>
       </c>
       <c r="D33" s="4">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4">
-        <v>-0.65</v>
+        <v>0</v>
       </c>
       <c r="F33" s="4">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="0">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="L33" s="8">
-        <v>45415</v>
+        <v>45465.63390320602</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N33" s="4">
-        <v>211</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7">
-        <v>45405.42673611111</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B34" s="4">
-        <v>-25</v>
+        <v>-200</v>
       </c>
       <c r="C34" s="0">
         <v>1</v>
       </c>
       <c r="D34" s="4">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="E34" s="4">
-        <v>-0.65</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="0">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="L34" s="8">
-        <v>45415</v>
+        <v>45465.63390320602</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N34" s="4">
-        <v>211</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7">
-        <v>45405.42643518518</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B35" s="4">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="C35" s="0">
         <v>1</v>
       </c>
       <c r="D35" s="4">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>-0.65</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="0">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="L35" s="8">
-        <v>45415</v>
+        <v>45465.63390320602</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N35" s="4">
-        <v>211</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7">
-        <v>45405.425578703704</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B36" s="4">
-        <v>-25</v>
+        <v>-175</v>
       </c>
       <c r="C36" s="0">
         <v>1</v>
       </c>
       <c r="D36" s="4">
-        <v>-3.25</v>
+        <v>-22.75</v>
       </c>
       <c r="E36" s="4">
-        <v>-0.65</v>
+        <v>-4.55</v>
       </c>
       <c r="F36" s="4">
-        <v>-21.1</v>
+        <v>-147.7</v>
       </c>
       <c r="G36" s="0">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="L36" s="8">
-        <v>45415</v>
+        <v>45465.63390320602</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N36" s="4">
-        <v>211</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7">
-        <v>45405.4252662037</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B37" s="4">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="C37" s="0">
         <v>1</v>
       </c>
       <c r="D37" s="4">
-        <v>-3.25</v>
+        <v>-13</v>
       </c>
       <c r="E37" s="4">
-        <v>-0.65</v>
+        <v>-2.6</v>
       </c>
       <c r="F37" s="4">
-        <v>-21.1</v>
+        <v>-84.4</v>
       </c>
       <c r="G37" s="0">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="L37" s="8">
-        <v>45415</v>
+        <v>45465.63390320602</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N37" s="4">
-        <v>211</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7">
-        <v>45405.424733796295</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B38" s="4">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="C38" s="0">
         <v>1</v>
       </c>
       <c r="D38" s="4">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="E38" s="4">
-        <v>-0.65</v>
+        <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="0">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="L38" s="8">
-        <v>45415</v>
+        <v>45465.63390320602</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N38" s="4">
-        <v>211</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7">
-        <v>45405.42259259259</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B39" s="4">
         <v>-25</v>
@@ -2333,165 +2150,165 @@
         <v>-21.1</v>
       </c>
       <c r="G39" s="0">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="L39" s="8">
-        <v>45415</v>
+        <v>45465.63390324074</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N39" s="4">
-        <v>211</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7">
-        <v>45404.53502314815</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B40" s="4">
-        <v>-50</v>
+        <v>-25</v>
       </c>
       <c r="C40" s="0">
         <v>1</v>
       </c>
       <c r="D40" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="E40" s="4">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="F40" s="4">
-        <v>-42.2</v>
+        <v>0</v>
       </c>
       <c r="G40" s="0">
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="L40" s="8">
-        <v>45412</v>
+        <v>45465.63390324074</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N40" s="4">
-        <v>42.2</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7">
-        <v>45402.580972222226</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B41" s="4">
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="C41" s="0">
         <v>1</v>
       </c>
       <c r="D41" s="4">
-        <v>-1.95</v>
+        <v>0</v>
       </c>
       <c r="E41" s="4">
-        <v>-0.39</v>
+        <v>0</v>
       </c>
       <c r="F41" s="4">
-        <v>-12.66</v>
+        <v>0</v>
       </c>
       <c r="G41" s="0">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="L41" s="8">
-        <v>45407</v>
+        <v>45465.63390324074</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="N41" s="4">
-        <v>497.96</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7">
-        <v>45402.580659722225</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B42" s="4">
-        <v>-250</v>
+        <v>-50</v>
       </c>
       <c r="C42" s="0">
         <v>1</v>
       </c>
       <c r="D42" s="4">
-        <v>-32.5</v>
+        <v>-6.5</v>
       </c>
       <c r="E42" s="4">
-        <v>-6.5</v>
+        <v>-1.3</v>
       </c>
       <c r="F42" s="4">
-        <v>-211</v>
+        <v>-42.2</v>
       </c>
       <c r="G42" s="0">
         <v>388</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="L42" s="8">
-        <v>45407</v>
+        <v>45465.63390324074</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="N42" s="4">
-        <v>497.96</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="7">
-        <v>45402.580300925925</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B43" s="4">
         <v>-250</v>
@@ -2500,174 +2317,174 @@
         <v>1</v>
       </c>
       <c r="D43" s="4">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="E43" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="F43" s="4">
-        <v>-211</v>
+        <v>0</v>
       </c>
       <c r="G43" s="0">
         <v>388</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="L43" s="8">
-        <v>45407</v>
+        <v>45465.63390324074</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="N43" s="4">
-        <v>497.96</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7">
-        <v>45401.42474537037</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B44" s="4">
-        <v>-50</v>
+        <v>-250</v>
       </c>
       <c r="C44" s="0">
         <v>1</v>
       </c>
       <c r="D44" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="E44" s="4">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="F44" s="4">
-        <v>-42.2</v>
+        <v>0</v>
       </c>
       <c r="G44" s="0">
         <v>388</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="L44" s="8">
-        <v>45407</v>
+        <v>45465.63390324074</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="N44" s="4">
-        <v>497.96</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7">
-        <v>45401.39800925926</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B45" s="4">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="C45" s="0">
         <v>1</v>
       </c>
       <c r="D45" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="E45" s="4">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="F45" s="4">
-        <v>-42.2</v>
+        <v>0</v>
       </c>
       <c r="G45" s="0">
-        <v>71</v>
+        <v>388</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="L45" s="8">
-        <v>45407</v>
+        <v>45465.63390324074</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="N45" s="4">
-        <v>42.2</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7">
-        <v>45398.66753472222</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B46" s="4">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="C46" s="0">
         <v>1</v>
       </c>
       <c r="D46" s="4">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="E46" s="4">
-        <v>-0.65</v>
+        <v>0</v>
       </c>
       <c r="F46" s="4">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="0">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="L46" s="8">
-        <v>45407</v>
+        <v>45465.63390324074</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="N46" s="4">
-        <v>497.96</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="7">
-        <v>45397.704930555556</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B47" s="4">
         <v>-25</v>
@@ -2676,174 +2493,174 @@
         <v>1</v>
       </c>
       <c r="D47" s="4">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="E47" s="4">
-        <v>-0.65</v>
+        <v>0</v>
       </c>
       <c r="F47" s="4">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="0">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="L47" s="8">
-        <v>45407</v>
+        <v>45465.63390327546</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="N47" s="4">
-        <v>21.1</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="7">
-        <v>45395.57090277778</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B48" s="4">
-        <v>-100</v>
+        <v>-25</v>
       </c>
       <c r="C48" s="0">
         <v>1</v>
       </c>
       <c r="D48" s="4">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E48" s="4">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="F48" s="4">
-        <v>-84.4</v>
+        <v>0</v>
       </c>
       <c r="G48" s="0">
-        <v>270</v>
+        <v>53</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="L48" s="8">
-        <v>45407</v>
+        <v>45465.63390327546</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="N48" s="4">
-        <v>168.8</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="7">
-        <v>45387.57041666667</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B49" s="4">
-        <v>-220</v>
+        <v>-25</v>
       </c>
       <c r="C49" s="0">
         <v>1</v>
       </c>
       <c r="D49" s="4">
-        <v>-28.6</v>
+        <v>0</v>
       </c>
       <c r="E49" s="4">
-        <v>-5.72</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4">
-        <v>-185.68</v>
+        <v>0</v>
       </c>
       <c r="G49" s="0">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="L49" s="8">
-        <v>45419</v>
+        <v>45465.63390327546</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="N49" s="4">
-        <v>248.98</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="7">
-        <v>45381.55064814815</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B50" s="4">
-        <v>-75</v>
+        <v>-25</v>
       </c>
       <c r="C50" s="0">
         <v>1</v>
       </c>
       <c r="D50" s="4">
-        <v>-9.75</v>
+        <v>0</v>
       </c>
       <c r="E50" s="4">
-        <v>-1.95</v>
+        <v>0</v>
       </c>
       <c r="F50" s="4">
-        <v>-63.3</v>
+        <v>0</v>
       </c>
       <c r="G50" s="0">
-        <v>512</v>
+        <v>53</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="L50" s="8">
-        <v>45407</v>
+        <v>45465.63390327546</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="N50" s="4">
-        <v>105.5</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="7">
-        <v>45379.54326388889</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B51" s="4">
         <v>-25</v>
@@ -2852,611 +2669,614 @@
         <v>1</v>
       </c>
       <c r="D51" s="4">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="E51" s="4">
-        <v>-0.65</v>
+        <v>0</v>
       </c>
       <c r="F51" s="4">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="0">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="L51" s="8">
-        <v>45407</v>
+        <v>45465.63390327546</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="N51" s="4">
-        <v>232.1</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="7">
-        <v>45379.393125</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B52" s="4">
-        <v>-250</v>
+        <v>-25</v>
       </c>
       <c r="C52" s="0">
         <v>1</v>
       </c>
       <c r="D52" s="4">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="E52" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="F52" s="4">
-        <v>-211</v>
+        <v>0</v>
       </c>
       <c r="G52" s="0">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="L52" s="8">
-        <v>45407</v>
+        <v>45465.63390332176</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="N52" s="4">
-        <v>654.1</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="7">
-        <v>45379.39261574074</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B53" s="4">
-        <v>-250</v>
+        <v>-25</v>
       </c>
       <c r="C53" s="0">
         <v>1</v>
       </c>
       <c r="D53" s="4">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="E53" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="F53" s="4">
-        <v>-211</v>
+        <v>0</v>
       </c>
       <c r="G53" s="0">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="L53" s="8">
-        <v>45407</v>
+        <v>45465.63390332176</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="N53" s="4">
-        <v>654.1</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7">
-        <v>45379.39163194445</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B54" s="4">
-        <v>-250</v>
+        <v>-25</v>
       </c>
       <c r="C54" s="0">
         <v>1</v>
       </c>
       <c r="D54" s="4">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="E54" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="F54" s="4">
-        <v>-211</v>
+        <v>0</v>
       </c>
       <c r="G54" s="0">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="L54" s="8">
-        <v>45407</v>
+        <v>45465.63390332176</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="N54" s="4">
-        <v>654.1</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="7">
-        <v>45377.358090277776</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B55" s="4">
-        <v>-220</v>
+        <v>-25</v>
       </c>
       <c r="C55" s="0">
         <v>1</v>
       </c>
       <c r="D55" s="4">
-        <v>-28.6</v>
+        <v>-3.25</v>
       </c>
       <c r="E55" s="4">
-        <v>-5.72</v>
+        <v>-0.65</v>
       </c>
       <c r="F55" s="4">
-        <v>-185.68</v>
+        <v>-21.1</v>
       </c>
       <c r="G55" s="0">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="L55" s="8">
-        <v>45407</v>
+        <v>45465.63390332176</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="N55" s="4">
-        <v>396.68</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="7">
-        <v>45377.358078703706</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B56" s="4">
-        <v>-250</v>
+        <v>-25</v>
       </c>
       <c r="C56" s="0">
         <v>1</v>
       </c>
       <c r="D56" s="4">
-        <v>-32.5</v>
+        <v>-3.25</v>
       </c>
       <c r="E56" s="4">
-        <v>-6.5</v>
+        <v>-0.65</v>
       </c>
       <c r="F56" s="4">
-        <v>-211</v>
+        <v>-21.1</v>
       </c>
       <c r="G56" s="0">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="L56" s="8">
-        <v>45407</v>
+        <v>45465.63390332176</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="N56" s="4">
-        <v>396.68</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="7">
-        <v>45375.46359953703</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B57" s="4">
-        <v>-190</v>
+        <v>-25</v>
       </c>
       <c r="C57" s="0">
         <v>1</v>
       </c>
       <c r="D57" s="4">
-        <v>-24.7</v>
+        <v>0</v>
       </c>
       <c r="E57" s="4">
-        <v>-4.94</v>
+        <v>0</v>
       </c>
       <c r="F57" s="4">
-        <v>-160.36</v>
+        <v>0</v>
       </c>
       <c r="G57" s="0">
-        <v>279</v>
+        <v>388</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="L57" s="8">
-        <v>45407</v>
+        <v>45465.63390335648</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="N57" s="4">
-        <v>371.36</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="7">
-        <v>45375.46271990741</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B58" s="4">
-        <v>-250</v>
+        <v>-50</v>
       </c>
       <c r="C58" s="0">
         <v>1</v>
       </c>
       <c r="D58" s="4">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="E58" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="F58" s="4">
-        <v>-211</v>
+        <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>279</v>
+        <v>388</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="L58" s="8">
-        <v>45407</v>
+        <v>45465.63390335648</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="N58" s="4">
-        <v>371.36</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="7">
-        <v>45372.97332175926</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B59" s="4">
-        <v>-100</v>
+        <v>-250</v>
       </c>
       <c r="C59" s="0">
         <v>1</v>
       </c>
       <c r="D59" s="4">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E59" s="4">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="F59" s="4">
-        <v>-84.4</v>
+        <v>0</v>
       </c>
       <c r="G59" s="0">
-        <v>388</v>
+        <v>91</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="L59" s="8">
-        <v>45407</v>
+        <v>45465.63390335648</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="N59" s="4">
-        <v>232.1</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="7">
-        <v>45366.4012037037</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B60" s="4">
-        <v>-50</v>
+        <v>-75</v>
       </c>
       <c r="C60" s="0">
         <v>1</v>
       </c>
       <c r="D60" s="4">
-        <v>-6.5</v>
+        <v>-9.75</v>
       </c>
       <c r="E60" s="4">
-        <v>-1.3</v>
+        <v>-1.95</v>
       </c>
       <c r="F60" s="4">
-        <v>-42.2</v>
+        <v>-63.3</v>
       </c>
       <c r="G60" s="0">
-        <v>512</v>
+        <v>90</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="L60" s="8">
-        <v>45407</v>
+        <v>45465.63390335648</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="N60" s="4">
-        <v>105.5</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="7">
-        <v>45364.48207175926</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B61" s="4">
-        <v>-100</v>
+        <v>-220</v>
       </c>
       <c r="C61" s="0">
         <v>1</v>
       </c>
       <c r="D61" s="4">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E61" s="4">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="F61" s="4">
-        <v>-84.4</v>
+        <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>371</v>
+        <v>90</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="L61" s="8">
-        <v>45407</v>
+        <v>45465.63390335648</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="N61" s="4">
-        <v>84.4</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="7">
-        <v>45357.84405092592</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B62" s="4">
-        <v>-75</v>
+        <v>-200</v>
       </c>
       <c r="C62" s="0">
         <v>1</v>
       </c>
       <c r="D62" s="4">
-        <v>-9.75</v>
+        <v>0</v>
       </c>
       <c r="E62" s="4">
-        <v>-1.95</v>
+        <v>0</v>
       </c>
       <c r="F62" s="4">
-        <v>-63.3</v>
+        <v>0</v>
       </c>
       <c r="G62" s="0">
         <v>388</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="L62" s="8">
-        <v>45453</v>
+        <v>45465.63390335648</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="N62" s="4">
-        <v>63.3</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="7">
-        <v>45352.45277777778</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B63" s="4">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="C63" s="0">
         <v>1</v>
       </c>
       <c r="D63" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="E63" s="4">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="F63" s="4">
-        <v>-42.2</v>
+        <v>0</v>
       </c>
       <c r="G63" s="0">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="L63" s="8">
-        <v>45404</v>
+        <v>45465.63390335648</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="N63" s="4">
-        <v>0</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="7">
-        <v>45348.86231481482</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B64" s="4">
-        <v>-135</v>
+        <v>-25</v>
       </c>
       <c r="C64" s="0">
         <v>1</v>
       </c>
       <c r="D64" s="4">
-        <v>-17.55</v>
+        <v>-3.25</v>
       </c>
       <c r="E64" s="4">
-        <v>-3.51</v>
+        <v>-0.65</v>
       </c>
       <c r="F64" s="4">
-        <v>-113.94</v>
+        <v>-21.1</v>
       </c>
       <c r="G64" s="0">
-        <v>236</v>
+        <v>403</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="L64" s="8">
-        <v>45407</v>
+        <v>45465.63390335648</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="N64" s="4">
-        <v>113.94</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="7">
-        <v>45347.45866898148</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B65" s="4">
         <v>-250</v>
@@ -3465,365 +3285,324 @@
         <v>1</v>
       </c>
       <c r="D65" s="4">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="E65" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="F65" s="4">
-        <v>-211</v>
+        <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="L65" s="8">
-        <v>45407</v>
+        <v>45465.6339033912</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="N65" s="4">
-        <v>211</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7">
-        <v>45326.56805555556</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B66" s="4">
-        <v>-100</v>
+        <v>-45</v>
       </c>
       <c r="C66" s="0">
         <v>1</v>
       </c>
       <c r="D66" s="4">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E66" s="4">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="F66" s="4">
-        <v>-84.4</v>
+        <v>0</v>
       </c>
       <c r="G66" s="0">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="L66" s="8">
-        <v>45407</v>
+        <v>45465.6339033912</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="N66" s="4">
-        <v>84.4</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="7">
-        <v>45320.705555555556</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B67" s="4">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="C67" s="0">
         <v>1</v>
       </c>
       <c r="D67" s="4">
-        <v>-5.2</v>
+        <v>0</v>
       </c>
       <c r="E67" s="4">
-        <v>-1.04</v>
+        <v>0</v>
       </c>
       <c r="F67" s="4">
-        <v>-33.76</v>
+        <v>0</v>
       </c>
       <c r="G67" s="0">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="L67" s="8">
-        <v>45407</v>
+        <v>45465.6339033912</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="N67" s="4">
-        <v>33.76</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7">
-        <v>45310.54652777778</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B68" s="4">
-        <v>-110</v>
+        <v>-10</v>
       </c>
       <c r="C68" s="0">
         <v>1</v>
       </c>
       <c r="D68" s="4">
-        <v>-14.3</v>
+        <v>0</v>
       </c>
       <c r="E68" s="4">
-        <v>-2.86</v>
+        <v>0</v>
       </c>
       <c r="F68" s="4">
-        <v>-92.84</v>
+        <v>0</v>
       </c>
       <c r="G68" s="0">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="L68" s="8">
-        <v>45407</v>
+        <v>45465.6339033912</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="N68" s="4">
-        <v>92.84</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="7">
-        <v>45304.50069444445</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B69" s="4">
-        <v>-25</v>
+        <v>-3</v>
       </c>
       <c r="C69" s="0">
         <v>1</v>
       </c>
       <c r="D69" s="4">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="E69" s="4">
-        <v>-0.65</v>
+        <v>0</v>
       </c>
       <c r="F69" s="4">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="0">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="L69" s="8">
-        <v>45407</v>
+        <v>45465.6339033912</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="N69" s="4">
-        <v>654.1</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7">
-        <v>45259.41805555556</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B70" s="4">
-        <v>-250</v>
+        <v>-100</v>
       </c>
       <c r="C70" s="0">
         <v>1</v>
       </c>
       <c r="D70" s="4">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="E70" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="F70" s="4">
-        <v>-211</v>
+        <v>0</v>
       </c>
       <c r="G70" s="0">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="L70" s="8">
-        <v>45404</v>
+        <v>45465.6339034375</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="N70" s="4">
-        <v>0</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="7">
-        <v>45089.680555555555</v>
+        <v>45292.40138888889</v>
       </c>
       <c r="B71" s="4">
-        <v>-250</v>
+        <v>-240</v>
       </c>
       <c r="C71" s="0">
         <v>1</v>
       </c>
       <c r="D71" s="4">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="E71" s="4">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="F71" s="4">
-        <v>-211</v>
+        <v>0</v>
       </c>
       <c r="G71" s="0">
-        <v>141</v>
+        <v>388</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>233</v>
+        <v>57</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="L71" s="8">
-        <v>45407</v>
+        <v>45465.6339034375</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="N71" s="4">
-        <v>211</v>
+        <v>3055.28</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7">
-        <v>44937.40138888889</v>
-      </c>
-      <c r="B72" s="4">
-        <v>-200</v>
-      </c>
-      <c r="C72" s="0">
-        <v>1</v>
-      </c>
-      <c r="D72" s="4">
-        <v>-26</v>
-      </c>
-      <c r="E72" s="4">
-        <v>-5.2</v>
-      </c>
-      <c r="F72" s="4">
-        <v>-168.8</v>
-      </c>
-      <c r="G72" s="0">
-        <v>47</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="L72" s="8">
-        <v>45407</v>
-      </c>
-      <c r="M72" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="N72" s="4">
-        <v>168.8</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B73" s="5">
-        <v>-7283</v>
-      </c>
-      <c r="C73" s="1">
-        <v>65</v>
-      </c>
-      <c r="D73" s="5">
-        <v>-946.79</v>
-      </c>
-      <c r="E73" s="5">
-        <v>-189.358</v>
-      </c>
-      <c r="F73" s="5">
-        <v>-6146.852</v>
-      </c>
-    </row>
-    <row r="74"/>
+      <c r="A72" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="5">
+        <v>-7208</v>
+      </c>
+      <c r="C72" s="1">
+        <v>64</v>
+      </c>
+      <c r="D72" s="5">
+        <v>-470.6</v>
+      </c>
+      <c r="E72" s="5">
+        <v>-94.12</v>
+      </c>
+      <c r="F72" s="5">
+        <v>-3055.28</v>
+      </c>
+    </row>
+    <row r="73"/>
   </sheetData>
   <headerFooter/>
   <tableParts>

--- a/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Redemptions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>01-Jul-2023 To 22-Jun-2024</t>
+    <t>01-Jul-2023 To 24-Jun-2024</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL FACE VALUE: </t>
@@ -615,7 +615,9 @@
     <xf numFmtId="0" fontId="3" applyFont="1"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" applyNumberFormat="1" fontId="0"/>
     <xf numFmtId="166" applyNumberFormat="1" fontId="0"/>
   </cellXfs>
@@ -661,9 +663,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.132932662963867" customWidth="1"/>
-    <col min="2" max="2" width="30.771818161010742" customWidth="1"/>
-    <col min="3" max="3" width="27.384668350219727" customWidth="1"/>
+    <col min="1" max="1" width="30.771818161010742" customWidth="1"/>
+    <col min="2" max="2" width="27.384668350219727" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="16.294299125671387" customWidth="1"/>
     <col min="5" max="5" width="12.20789623260498" customWidth="1"/>
     <col min="6" max="6" width="17.799227714538574" customWidth="1"/>
@@ -678,47 +680,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
+      <c r="B5" s="6">
         <v>-7208</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6">
+      <c r="B6" s="6">
         <v>-3055.28</v>
       </c>
     </row>

--- a/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">STORE NAME: </t>
   </si>
   <si>
-    <t>387 | Lancashire Golf Academy</t>
+    <t>388 | Lancashire Golf Academy</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT NAME: </t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>30-May-2024 To 05-Jun-2024</t>
+    <t>29-May-2024 To 04-Jun-2024</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL FACE VALUE: </t>
@@ -86,16 +86,16 @@
     <t>Lancashire Golf Academy</t>
   </si>
   <si>
-    <t>PR6 7PP</t>
-  </si>
-  <si>
-    <t>EP0130108011100525</t>
-  </si>
-  <si>
-    <t>1261459099</t>
-  </si>
-  <si>
-    <t>GCP0000195</t>
+    <t>BB1 9LF</t>
+  </si>
+  <si>
+    <t>EP0130108000000525</t>
+  </si>
+  <si>
+    <t>1241458099</t>
+  </si>
+  <si>
+    <t>GCP000034</t>
   </si>
   <si>
     <t>Totals</t>
@@ -211,7 +211,7 @@
     <col min="2" max="2" width="31.101184844970703" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="16.294299125671387" customWidth="1"/>
-    <col min="5" max="5" width="10.69301700592041" customWidth="1"/>
+    <col min="5" max="5" width="11.114240646362305" customWidth="1"/>
     <col min="6" max="6" width="17.799227714538574" customWidth="1"/>
     <col min="7" max="7" width="10.799415588378906" customWidth="1"/>
     <col min="8" max="8" width="22.75058364868164" customWidth="1"/>
@@ -265,7 +265,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="6">
-        <v>0</v>
+        <v>-63.3</v>
       </c>
     </row>
     <row r="7">
@@ -314,7 +314,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7">
-        <v>45446.84405092592</v>
+        <v>45357.84405092592</v>
       </c>
       <c r="B8" s="4">
         <v>-75</v>
@@ -323,16 +323,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>-9.75</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>-1.95</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>-63.3</v>
       </c>
       <c r="G8" s="0">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>23</v>
@@ -347,13 +347,13 @@
         <v>26</v>
       </c>
       <c r="L8" s="8">
-        <v>45471.51715162037</v>
+        <v>45453</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>27</v>
       </c>
       <c r="N8" s="4">
-        <v>0</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="9">
@@ -367,13 +367,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>-9.75</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>-1.95</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>-63.3</v>
       </c>
     </row>
     <row r="10"/>

--- a/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>REDEMPTIONS REPORT</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">STORE NAME: </t>
   </si>
   <si>
-    <t>388 | Lancashire Golf Academy</t>
+    <t>98 | Waterlooville Golf Club- PGA Professional James Crawford</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT NAME: </t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>29-May-2024 To 04-Jun-2024</t>
+    <t>01-Jul-2024 To 07-Jul-2024</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL FACE VALUE: </t>
@@ -83,19 +83,16 @@
     <t>Statement Amt</t>
   </si>
   <si>
-    <t>Lancashire Golf Academy</t>
-  </si>
-  <si>
-    <t>BB1 9LF</t>
-  </si>
-  <si>
-    <t>EP0130108000000525</t>
-  </si>
-  <si>
-    <t>1241458099</t>
-  </si>
-  <si>
-    <t>GCP000034</t>
+    <t>Waterlooville Golf Club- PGA Pro James Crawford</t>
+  </si>
+  <si>
+    <t>PO8 8AP</t>
+  </si>
+  <si>
+    <t>EP0130108000000598</t>
+  </si>
+  <si>
+    <t>1276720122</t>
   </si>
   <si>
     <t>Totals</t>
@@ -208,13 +205,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.771818161010742" customWidth="1"/>
-    <col min="2" max="2" width="31.101184844970703" customWidth="1"/>
+    <col min="2" max="2" width="62.246273040771484" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="16.294299125671387" customWidth="1"/>
     <col min="5" max="5" width="11.114240646362305" customWidth="1"/>
     <col min="6" max="6" width="17.799227714538574" customWidth="1"/>
     <col min="7" max="7" width="10.799415588378906" customWidth="1"/>
-    <col min="8" max="8" width="22.75058364868164" customWidth="1"/>
+    <col min="8" max="8" width="43.91780471801758" customWidth="1"/>
     <col min="9" max="9" width="11.174880027770996" customWidth="1"/>
     <col min="10" max="10" width="20.365819931030273" customWidth="1"/>
     <col min="11" max="11" width="11.634980201721191" customWidth="1"/>
@@ -257,7 +254,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-75</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="6">
@@ -265,7 +262,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="6">
-        <v>-63.3</v>
+        <v>-168.8</v>
       </c>
     </row>
     <row r="7">
@@ -314,25 +311,25 @@
     </row>
     <row r="8">
       <c r="A8" s="7">
-        <v>45357.84405092592</v>
+        <v>45477.43819444445</v>
       </c>
       <c r="B8" s="4">
-        <v>-75</v>
+        <v>-200</v>
       </c>
       <c r="C8" s="0">
         <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>-9.75</v>
+        <v>-26</v>
       </c>
       <c r="E8" s="4">
-        <v>-1.95</v>
+        <v>-5.2</v>
       </c>
       <c r="F8" s="4">
-        <v>-63.3</v>
+        <v>-168.8</v>
       </c>
       <c r="G8" s="0">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>23</v>
@@ -346,34 +343,29 @@
       <c r="K8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="8">
-        <v>45453</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>27</v>
-      </c>
+      <c r="L8" s="8"/>
       <c r="N8" s="4">
-        <v>63.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5">
-        <v>-75</v>
+        <v>-200</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <v>-9.75</v>
+        <v>-26</v>
       </c>
       <c r="E9" s="5">
-        <v>-1.95</v>
+        <v>-5.2</v>
       </c>
       <c r="F9" s="5">
-        <v>-63.3</v>
+        <v>-168.8</v>
       </c>
     </row>
     <row r="10"/>

--- a/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>REDEMPTIONS REPORT</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">STORE NAME: </t>
   </si>
   <si>
-    <t>98 | Waterlooville Golf Club- PGA Professional James Crawford</t>
+    <t>388 | Lancashire Golf Academy</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT NAME: </t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>01-Jul-2024 To 07-Jul-2024</t>
+    <t>03-Jun-2024 To 09-Jun-2024</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL FACE VALUE: </t>
@@ -83,16 +83,19 @@
     <t>Statement Amt</t>
   </si>
   <si>
-    <t>Waterlooville Golf Club- PGA Pro James Crawford</t>
-  </si>
-  <si>
-    <t>PO8 8AP</t>
-  </si>
-  <si>
-    <t>EP0130108000000598</t>
-  </si>
-  <si>
-    <t>1276720122</t>
+    <t>Lancashire Golf Academy</t>
+  </si>
+  <si>
+    <t>BB1 9LF</t>
+  </si>
+  <si>
+    <t>EP0130108000000525</t>
+  </si>
+  <si>
+    <t>1241458099</t>
+  </si>
+  <si>
+    <t>GCP0000060</t>
   </si>
   <si>
     <t>Totals</t>
@@ -205,13 +208,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.771818161010742" customWidth="1"/>
-    <col min="2" max="2" width="62.246273040771484" customWidth="1"/>
+    <col min="2" max="2" width="31.101184844970703" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="16.294299125671387" customWidth="1"/>
     <col min="5" max="5" width="11.114240646362305" customWidth="1"/>
     <col min="6" max="6" width="17.799227714538574" customWidth="1"/>
     <col min="7" max="7" width="10.799415588378906" customWidth="1"/>
-    <col min="8" max="8" width="43.91780471801758" customWidth="1"/>
+    <col min="8" max="8" width="22.75058364868164" customWidth="1"/>
     <col min="9" max="9" width="11.174880027770996" customWidth="1"/>
     <col min="10" max="10" width="20.365819931030273" customWidth="1"/>
     <col min="11" max="11" width="11.634980201721191" customWidth="1"/>
@@ -254,7 +257,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-200</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="6">
@@ -262,7 +265,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="6">
-        <v>-168.8</v>
+        <v>-63.3</v>
       </c>
     </row>
     <row r="7">
@@ -311,25 +314,25 @@
     </row>
     <row r="8">
       <c r="A8" s="7">
-        <v>45477.43819444445</v>
+        <v>45446.84405092592</v>
       </c>
       <c r="B8" s="4">
-        <v>-200</v>
+        <v>-75</v>
       </c>
       <c r="C8" s="0">
         <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>-26</v>
+        <v>-9.75</v>
       </c>
       <c r="E8" s="4">
-        <v>-5.2</v>
+        <v>-1.95</v>
       </c>
       <c r="F8" s="4">
-        <v>-168.8</v>
+        <v>-63.3</v>
       </c>
       <c r="G8" s="0">
-        <v>98</v>
+        <v>388</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>23</v>
@@ -343,29 +346,34 @@
       <c r="K8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="8">
+        <v>45491.647632025466</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>27</v>
+      </c>
       <c r="N8" s="4">
-        <v>0</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5">
-        <v>-200</v>
+        <v>-75</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <v>-26</v>
+        <v>-9.75</v>
       </c>
       <c r="E9" s="5">
-        <v>-5.2</v>
+        <v>-1.95</v>
       </c>
       <c r="F9" s="5">
-        <v>-168.8</v>
+        <v>-63.3</v>
       </c>
     </row>
     <row r="10"/>

--- a/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>REDEMPTIONS REPORT</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">STORE NAME: </t>
   </si>
   <si>
-    <t>388 | Lancashire Golf Academy</t>
+    <t>489 | Adam Harnett Golf Instruction</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT NAME: </t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>03-Jun-2024 To 09-Jun-2024</t>
+    <t>15-Jul-2024 To 21-Jul-2024</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL FACE VALUE: </t>
@@ -83,19 +83,16 @@
     <t>Statement Amt</t>
   </si>
   <si>
-    <t>Lancashire Golf Academy</t>
-  </si>
-  <si>
-    <t>BB1 9LF</t>
-  </si>
-  <si>
-    <t>EP0130108000000525</t>
-  </si>
-  <si>
-    <t>1241458099</t>
-  </si>
-  <si>
-    <t>GCP0000060</t>
+    <t>Adam Harnett Golf Instruction</t>
+  </si>
+  <si>
+    <t>GU34 4QL</t>
+  </si>
+  <si>
+    <t>EP0130108000000667</t>
+  </si>
+  <si>
+    <t>1288898880</t>
   </si>
   <si>
     <t>Totals</t>
@@ -208,13 +205,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.771818161010742" customWidth="1"/>
-    <col min="2" max="2" width="31.101184844970703" customWidth="1"/>
+    <col min="2" max="2" width="36.19605255126953" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="16.294299125671387" customWidth="1"/>
-    <col min="5" max="5" width="11.114240646362305" customWidth="1"/>
+    <col min="5" max="5" width="10.69301700592041" customWidth="1"/>
     <col min="6" max="6" width="17.799227714538574" customWidth="1"/>
     <col min="7" max="7" width="10.799415588378906" customWidth="1"/>
-    <col min="8" max="8" width="22.75058364868164" customWidth="1"/>
+    <col min="8" max="8" width="27.27151107788086" customWidth="1"/>
     <col min="9" max="9" width="11.174880027770996" customWidth="1"/>
     <col min="10" max="10" width="20.365819931030273" customWidth="1"/>
     <col min="11" max="11" width="11.634980201721191" customWidth="1"/>
@@ -257,7 +254,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-75</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6">
@@ -265,7 +262,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="6">
-        <v>-63.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -314,25 +311,25 @@
     </row>
     <row r="8">
       <c r="A8" s="7">
-        <v>45446.84405092592</v>
+        <v>45492.667083333334</v>
       </c>
       <c r="B8" s="4">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="C8" s="0">
         <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>-9.75</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>-1.95</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>-63.3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>388</v>
+        <v>489</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>23</v>
@@ -346,34 +343,29 @@
       <c r="K8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="8">
-        <v>45491.647632025466</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>27</v>
-      </c>
+      <c r="L8" s="8"/>
       <c r="N8" s="4">
-        <v>63.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <v>-9.75</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
-        <v>-1.95</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>-63.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10"/>

--- a/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t>REDEMPTIONS REPORT</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">STORE NAME: </t>
   </si>
   <si>
-    <t>489 | Adam Harnett Golf Instruction</t>
+    <t>0 | All Stores</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT NAME: </t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>15-Jul-2024 To 21-Jul-2024</t>
+    <t>01-Jul-2023 To 01-Sep-2024</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL FACE VALUE: </t>
@@ -83,6 +83,36 @@
     <t>Statement Amt</t>
   </si>
   <si>
+    <t>North Warwickshire Golf Club- PGA Professional Jamie Taylor</t>
+  </si>
+  <si>
+    <t>CV7 7LL</t>
+  </si>
+  <si>
+    <t>EP0130108000000671</t>
+  </si>
+  <si>
+    <t>1265758948</t>
+  </si>
+  <si>
+    <t>Donnington Valley Golf Club- PGA Professional Martin Balfour</t>
+  </si>
+  <si>
+    <t>RG14 3BG</t>
+  </si>
+  <si>
+    <t>EP0140108000000708</t>
+  </si>
+  <si>
+    <t>1266936752</t>
+  </si>
+  <si>
+    <t>EP0140108000000707</t>
+  </si>
+  <si>
+    <t>1266936717</t>
+  </si>
+  <si>
     <t>Adam Harnett Golf Instruction</t>
   </si>
   <si>
@@ -93,6 +123,891 @@
   </si>
   <si>
     <t>1288898880</t>
+  </si>
+  <si>
+    <t>Sandford Springs Golf Club</t>
+  </si>
+  <si>
+    <t>RG26 5RT</t>
+  </si>
+  <si>
+    <t>EP0130108000000656</t>
+  </si>
+  <si>
+    <t>1273834786</t>
+  </si>
+  <si>
+    <t>Kidderminster Golf Club- PGA Professional Pat Smith</t>
+  </si>
+  <si>
+    <t>DY10 3HT</t>
+  </si>
+  <si>
+    <t>EP0140108000000671</t>
+  </si>
+  <si>
+    <t>1283992844</t>
+  </si>
+  <si>
+    <t>Newbury &amp; Crookham Golf Club -PGA Professional James Foster</t>
+  </si>
+  <si>
+    <t>RG19 8BZ</t>
+  </si>
+  <si>
+    <t>EP0140108000000667</t>
+  </si>
+  <si>
+    <t>1259608709</t>
+  </si>
+  <si>
+    <t>EP0130108000000603</t>
+  </si>
+  <si>
+    <t>GCP0000056</t>
+  </si>
+  <si>
+    <t>Hartsbourne Country Club</t>
+  </si>
+  <si>
+    <t>EP0140108000000624</t>
+  </si>
+  <si>
+    <t>1176342894</t>
+  </si>
+  <si>
+    <t>Waterlooville Golf Club- PGA Professional James Crawford</t>
+  </si>
+  <si>
+    <t>PO8 8AP</t>
+  </si>
+  <si>
+    <t>EP0130108000000598</t>
+  </si>
+  <si>
+    <t>1276720122</t>
+  </si>
+  <si>
+    <t>GCP0000057</t>
+  </si>
+  <si>
+    <t>Stirling Golf Club-PGA Professional Kenny Monaghan</t>
+  </si>
+  <si>
+    <t>FK8 2QY</t>
+  </si>
+  <si>
+    <t>EP0130108000000574</t>
+  </si>
+  <si>
+    <t>1266614626</t>
+  </si>
+  <si>
+    <t>GCP000043</t>
+  </si>
+  <si>
+    <t>EP0140108000000604</t>
+  </si>
+  <si>
+    <t>1265372321</t>
+  </si>
+  <si>
+    <t>GCP000044</t>
+  </si>
+  <si>
+    <t>Vale Royal Abbey Golf Club- PGA Professional Ben Derbyshire</t>
+  </si>
+  <si>
+    <t>CW8 2BA</t>
+  </si>
+  <si>
+    <t>EP0130108000000569</t>
+  </si>
+  <si>
+    <t>1275910055</t>
+  </si>
+  <si>
+    <t>GCP000045</t>
+  </si>
+  <si>
+    <t>Sand Moor Golf Club- PGA Professional Alex James</t>
+  </si>
+  <si>
+    <t>LS17 7DJ</t>
+  </si>
+  <si>
+    <t>EP0140108000000596</t>
+  </si>
+  <si>
+    <t>1279513484</t>
+  </si>
+  <si>
+    <t>GCP000040</t>
+  </si>
+  <si>
+    <t>EP0140108000000583</t>
+  </si>
+  <si>
+    <t>1279527405</t>
+  </si>
+  <si>
+    <t>GCP000039</t>
+  </si>
+  <si>
+    <t>Bondhay Golf Club</t>
+  </si>
+  <si>
+    <t>S80 3EH</t>
+  </si>
+  <si>
+    <t>EP0140108000000579</t>
+  </si>
+  <si>
+    <t>1264500293</t>
+  </si>
+  <si>
+    <t>GCP000042</t>
+  </si>
+  <si>
+    <t>Kirby Muxloe Golf Club</t>
+  </si>
+  <si>
+    <t>LE9 2EL</t>
+  </si>
+  <si>
+    <t>EP0140108000000574</t>
+  </si>
+  <si>
+    <t>1276297155</t>
+  </si>
+  <si>
+    <t>GCP000041</t>
+  </si>
+  <si>
+    <t>EP0140108000000570</t>
+  </si>
+  <si>
+    <t>1276280576</t>
+  </si>
+  <si>
+    <t>EP0140108000000566</t>
+  </si>
+  <si>
+    <t>1276281627</t>
+  </si>
+  <si>
+    <t>EP0140108000000561</t>
+  </si>
+  <si>
+    <t>1276282060</t>
+  </si>
+  <si>
+    <t>EP0140108000000557</t>
+  </si>
+  <si>
+    <t>1276282420</t>
+  </si>
+  <si>
+    <t>Lancashire Golf Academy</t>
+  </si>
+  <si>
+    <t>BB1 9LF</t>
+  </si>
+  <si>
+    <t>EP0140108000000519</t>
+  </si>
+  <si>
+    <t>1255201267</t>
+  </si>
+  <si>
+    <t>GCP000037</t>
+  </si>
+  <si>
+    <t>Southport Golf Academy</t>
+  </si>
+  <si>
+    <t>PR4 6JX</t>
+  </si>
+  <si>
+    <t>EP0140108000000512</t>
+  </si>
+  <si>
+    <t>1170040513</t>
+  </si>
+  <si>
+    <t>GCP000038</t>
+  </si>
+  <si>
+    <t>EP0140108000000508</t>
+  </si>
+  <si>
+    <t>1267371149</t>
+  </si>
+  <si>
+    <t>EP0130108000000536</t>
+  </si>
+  <si>
+    <t>1172960040</t>
+  </si>
+  <si>
+    <t>GCP000036</t>
+  </si>
+  <si>
+    <t>Brentwood Golf Club- PGA Professional Paul Eady</t>
+  </si>
+  <si>
+    <t>CM14 5RJ</t>
+  </si>
+  <si>
+    <t>EP0130108000000531</t>
+  </si>
+  <si>
+    <t>1181059717</t>
+  </si>
+  <si>
+    <t>GCP000035</t>
+  </si>
+  <si>
+    <t>EP0130108000000525</t>
+  </si>
+  <si>
+    <t>1241458099</t>
+  </si>
+  <si>
+    <t>GCP0000062</t>
+  </si>
+  <si>
+    <t>EP0140108000000486</t>
+  </si>
+  <si>
+    <t>1266113218</t>
+  </si>
+  <si>
+    <t>GCP000033</t>
+  </si>
+  <si>
+    <t>EP0140108000000476</t>
+  </si>
+  <si>
+    <t>1251506861</t>
+  </si>
+  <si>
+    <t>GCP000032</t>
+  </si>
+  <si>
+    <t>Reuben Club</t>
+  </si>
+  <si>
+    <t>SN67AH</t>
+  </si>
+  <si>
+    <t>EP0140108000000457</t>
+  </si>
+  <si>
+    <t>1265352612</t>
+  </si>
+  <si>
+    <t>Golf Gift Card</t>
+  </si>
+  <si>
+    <t>IP1 1RJ</t>
+  </si>
+  <si>
+    <t>EP0140108000000453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Worcestershire Golf Club- PGA Head Professional  Dan Yates</t>
+  </si>
+  <si>
+    <t>WR14 4PP</t>
+  </si>
+  <si>
+    <t>EP0130108000000491</t>
+  </si>
+  <si>
+    <t>1253288575</t>
+  </si>
+  <si>
+    <t>GCP000031</t>
+  </si>
+  <si>
+    <t>Shrewsbury Driving Range- PGA Professional Phil Toomer</t>
+  </si>
+  <si>
+    <t>SY2 5XQ</t>
+  </si>
+  <si>
+    <t>EP0130108000000473</t>
+  </si>
+  <si>
+    <t>1262780652</t>
+  </si>
+  <si>
+    <t>GCP000030</t>
+  </si>
+  <si>
+    <t>EP0130108000000472</t>
+  </si>
+  <si>
+    <t>1262780640</t>
+  </si>
+  <si>
+    <t>Melville Golf Centre - PGA Professional Alastair Macfarlane</t>
+  </si>
+  <si>
+    <t>EH18 1AN</t>
+  </si>
+  <si>
+    <t>EP0130108000000462</t>
+  </si>
+  <si>
+    <t>1170348966</t>
+  </si>
+  <si>
+    <t>GCP000029</t>
+  </si>
+  <si>
+    <t>Dinsdale Golf Club- PGA Professional Ashley Jones</t>
+  </si>
+  <si>
+    <t>DL2 1DW</t>
+  </si>
+  <si>
+    <t>EP0140108000000405</t>
+  </si>
+  <si>
+    <t>1251468564</t>
+  </si>
+  <si>
+    <t>GCP000027</t>
+  </si>
+  <si>
+    <t>EP0130108000000455</t>
+  </si>
+  <si>
+    <t>1259306485</t>
+  </si>
+  <si>
+    <t>GCP000028</t>
+  </si>
+  <si>
+    <t>EP0140108000000388</t>
+  </si>
+  <si>
+    <t>1260077993</t>
+  </si>
+  <si>
+    <t>GCP000025</t>
+  </si>
+  <si>
+    <t>EP0140108000000378</t>
+  </si>
+  <si>
+    <t>1172960041</t>
+  </si>
+  <si>
+    <t>Downfield Golf Club- PGA Professional Barry Smith</t>
+  </si>
+  <si>
+    <t>DD2 3QP</t>
+  </si>
+  <si>
+    <t>EP0130108000000446</t>
+  </si>
+  <si>
+    <t>1251450464</t>
+  </si>
+  <si>
+    <t>GCP000026</t>
+  </si>
+  <si>
+    <t>EP0140108000000367</t>
+  </si>
+  <si>
+    <t>1249136676</t>
+  </si>
+  <si>
+    <t>GCP000024</t>
+  </si>
+  <si>
+    <t>EP0130108000000419</t>
+  </si>
+  <si>
+    <t>1251310970</t>
+  </si>
+  <si>
+    <t>Fleetwood Golf Club- PGA Professional Dan Skelcher</t>
+  </si>
+  <si>
+    <t>FY7 8AF</t>
+  </si>
+  <si>
+    <t>EP0140108000000358</t>
+  </si>
+  <si>
+    <t>1205381016</t>
+  </si>
+  <si>
+    <t>GCP000023</t>
+  </si>
+  <si>
+    <t>EP0140108000000354</t>
+  </si>
+  <si>
+    <t>1205381053</t>
+  </si>
+  <si>
+    <t>EP0130108000000415</t>
+  </si>
+  <si>
+    <t>1249050937</t>
+  </si>
+  <si>
+    <t>EP0130108000000411</t>
+  </si>
+  <si>
+    <t>1250183598</t>
+  </si>
+  <si>
+    <t>EP0130108000000407</t>
+  </si>
+  <si>
+    <t>1250182620</t>
+  </si>
+  <si>
+    <t>EP0130108000000403</t>
+  </si>
+  <si>
+    <t>1250927545</t>
+  </si>
+  <si>
+    <t>EP0130108000000399</t>
+  </si>
+  <si>
+    <t>1250927473</t>
+  </si>
+  <si>
+    <t>EP0130108000000395</t>
+  </si>
+  <si>
+    <t>1251082715</t>
+  </si>
+  <si>
+    <t>EP0130108000000391</t>
+  </si>
+  <si>
+    <t>1251082745</t>
+  </si>
+  <si>
+    <t>EP0130108000000387</t>
+  </si>
+  <si>
+    <t>1249050891</t>
+  </si>
+  <si>
+    <t>Lexden Wood Golf Club- PGA Professional Jack Blackman</t>
+  </si>
+  <si>
+    <t>CO3 4AU</t>
+  </si>
+  <si>
+    <t>EP0130108000000376</t>
+  </si>
+  <si>
+    <t>1251087435</t>
+  </si>
+  <si>
+    <t>EP0140108000000323</t>
+  </si>
+  <si>
+    <t>1251465943</t>
+  </si>
+  <si>
+    <t>GCP000022</t>
+  </si>
+  <si>
+    <t>EP0140108000000319</t>
+  </si>
+  <si>
+    <t>1251465940</t>
+  </si>
+  <si>
+    <t>EP0140108000000315</t>
+  </si>
+  <si>
+    <t>1251459552</t>
+  </si>
+  <si>
+    <t>EP0130108000000367</t>
+  </si>
+  <si>
+    <t>1133222669</t>
+  </si>
+  <si>
+    <t>EP0140108000000307</t>
+  </si>
+  <si>
+    <t>1247072372</t>
+  </si>
+  <si>
+    <t>GCP000020</t>
+  </si>
+  <si>
+    <t>EP0140108000000292</t>
+  </si>
+  <si>
+    <t>1249896873</t>
+  </si>
+  <si>
+    <t>Dunnikier Park Golf Club</t>
+  </si>
+  <si>
+    <t>KY1 3LP</t>
+  </si>
+  <si>
+    <t>EP0140108000000288</t>
+  </si>
+  <si>
+    <t>1159178643</t>
+  </si>
+  <si>
+    <t>GCP000021</t>
+  </si>
+  <si>
+    <t>Lewis Parker Golf- PGA Professional Lewis Parker</t>
+  </si>
+  <si>
+    <t>RH10 3GG</t>
+  </si>
+  <si>
+    <t>EP0140108000000284</t>
+  </si>
+  <si>
+    <t>1248263333</t>
+  </si>
+  <si>
+    <t>GCP000013</t>
+  </si>
+  <si>
+    <t>Davyhulme Park Golf Club - PGA Professional Martyn Hamer</t>
+  </si>
+  <si>
+    <t>M41 8SA</t>
+  </si>
+  <si>
+    <t>EP0140108000000279</t>
+  </si>
+  <si>
+    <t>1176005875</t>
+  </si>
+  <si>
+    <t>GCP000012</t>
+  </si>
+  <si>
+    <t>Blackwater Valley Golf centre- PGA Professional Wayne Owers</t>
+  </si>
+  <si>
+    <t>GU467SZ</t>
+  </si>
+  <si>
+    <t>EP0130108000000329</t>
+  </si>
+  <si>
+    <t>1163707084</t>
+  </si>
+  <si>
+    <t>GCP000008</t>
+  </si>
+  <si>
+    <t>EP0130108000000318</t>
+  </si>
+  <si>
+    <t>1247323152</t>
+  </si>
+  <si>
+    <t>EP0130108000000314</t>
+  </si>
+  <si>
+    <t>GCP000004</t>
+  </si>
+  <si>
+    <t>EP0130108000000313</t>
+  </si>
+  <si>
+    <t>1247072370</t>
+  </si>
+  <si>
+    <t>Risebridge Golf Club</t>
+  </si>
+  <si>
+    <t>RM1 4PR</t>
+  </si>
+  <si>
+    <t>EP0130108000000300</t>
+  </si>
+  <si>
+    <t>1209785809</t>
+  </si>
+  <si>
+    <t>GCP000005</t>
+  </si>
+  <si>
+    <t>MWL Golf Ltd-PGA Professional Mark Lawrie</t>
+  </si>
+  <si>
+    <t>UB95DE</t>
+  </si>
+  <si>
+    <t>EP0140108000000257</t>
+  </si>
+  <si>
+    <t>1246000370</t>
+  </si>
+  <si>
+    <t>GCP000018</t>
+  </si>
+  <si>
+    <t>EP0140108000000251</t>
+  </si>
+  <si>
+    <t>1175042011</t>
+  </si>
+  <si>
+    <t>Wishaw Golf Club- PGA Professional David Park</t>
+  </si>
+  <si>
+    <t>ML2 7PH</t>
+  </si>
+  <si>
+    <t>EP0130108000000290</t>
+  </si>
+  <si>
+    <t>1244995891</t>
+  </si>
+  <si>
+    <t>GCP000009</t>
+  </si>
+  <si>
+    <t>EP0130108000000286</t>
+  </si>
+  <si>
+    <t>1245004332</t>
+  </si>
+  <si>
+    <t>EP0130108000000281</t>
+  </si>
+  <si>
+    <t>1245012618</t>
+  </si>
+  <si>
+    <t>Blyth Golf Club- PGA Professional Ross Crowe</t>
+  </si>
+  <si>
+    <t>NE24 4DB</t>
+  </si>
+  <si>
+    <t>EP0130108000000277</t>
+  </si>
+  <si>
+    <t>1212914862</t>
+  </si>
+  <si>
+    <t>GCP000002</t>
+  </si>
+  <si>
+    <t>EP0130108000000276</t>
+  </si>
+  <si>
+    <t>1213151500</t>
+  </si>
+  <si>
+    <t>Wellingborough Golf Club- PGA Professional James Whittemore</t>
+  </si>
+  <si>
+    <t>NN9 5AD</t>
+  </si>
+  <si>
+    <t>EP0140108000000246</t>
+  </si>
+  <si>
+    <t>1239379637</t>
+  </si>
+  <si>
+    <t>GCP000014</t>
+  </si>
+  <si>
+    <t>EP0140108000000242</t>
+  </si>
+  <si>
+    <t>1239348762</t>
+  </si>
+  <si>
+    <t>EP0140108000000237</t>
+  </si>
+  <si>
+    <t>1234981654</t>
+  </si>
+  <si>
+    <t>GCP000019</t>
+  </si>
+  <si>
+    <t>EP0130108000000255</t>
+  </si>
+  <si>
+    <t>1234826842</t>
+  </si>
+  <si>
+    <t>Paul McKay Golf Coaching -PGA Professional Paul McKay</t>
+  </si>
+  <si>
+    <t>ML10 6GH</t>
+  </si>
+  <si>
+    <t>EP0140108000000214</t>
+  </si>
+  <si>
+    <t>1175037903</t>
+  </si>
+  <si>
+    <t>GCP000016</t>
+  </si>
+  <si>
+    <t>EP0140108000000208</t>
+  </si>
+  <si>
+    <t>1215631430</t>
+  </si>
+  <si>
+    <t>Shirehampton Park Golf Club- PGA Professional Jon Palmer</t>
+  </si>
+  <si>
+    <t>BS11 0UL</t>
+  </si>
+  <si>
+    <t>EP0130108000000239</t>
+  </si>
+  <si>
+    <t>1213328455</t>
+  </si>
+  <si>
+    <t>GCP000010</t>
+  </si>
+  <si>
+    <t>Morpeth Golf Club- PGA Professional David Clarke</t>
+  </si>
+  <si>
+    <t>NE61 2BT</t>
+  </si>
+  <si>
+    <t>EP0140108000000200</t>
+  </si>
+  <si>
+    <t>1211792682</t>
+  </si>
+  <si>
+    <t>GCP000001</t>
+  </si>
+  <si>
+    <t>Beedles Lake Golf Club- PGA Professional Sean Byrne</t>
+  </si>
+  <si>
+    <t>LE7 3WQ</t>
+  </si>
+  <si>
+    <t>EP0130108000000195</t>
+  </si>
+  <si>
+    <t>1179236414</t>
+  </si>
+  <si>
+    <t>GCP000011</t>
+  </si>
+  <si>
+    <t>EP0140108000000151</t>
+  </si>
+  <si>
+    <t>1116299488</t>
+  </si>
+  <si>
+    <t>GCP000006</t>
+  </si>
+  <si>
+    <t>EP0130108000000175</t>
+  </si>
+  <si>
+    <t>1175042292</t>
+  </si>
+  <si>
+    <t>Styal Golf Club -PGA Professional Sammy Jaafari</t>
+  </si>
+  <si>
+    <t>SK9 4JN</t>
+  </si>
+  <si>
+    <t>EP0140108000000144</t>
+  </si>
+  <si>
+    <t>1150547658</t>
+  </si>
+  <si>
+    <t>GCP000015</t>
+  </si>
+  <si>
+    <t>Mark Nelson Golf -PGA Professional Mark Nelson</t>
+  </si>
+  <si>
+    <t>WR9 0LE</t>
+  </si>
+  <si>
+    <t>EP0130108000000168</t>
+  </si>
+  <si>
+    <t>1176772012</t>
+  </si>
+  <si>
+    <t>GCP000017</t>
+  </si>
+  <si>
+    <t>EP0130108000000164</t>
+  </si>
+  <si>
+    <t>1172545209</t>
+  </si>
+  <si>
+    <t>Chippenham Golf Club- PGA Professional Ben Lloyd</t>
+  </si>
+  <si>
+    <t>SN15 5LT</t>
+  </si>
+  <si>
+    <t>EP0140108000000108</t>
+  </si>
+  <si>
+    <t>1166886235</t>
+  </si>
+  <si>
+    <t>GCP000007</t>
+  </si>
+  <si>
+    <t>EP0130108000000120</t>
+  </si>
+  <si>
+    <t>1159243156</t>
+  </si>
+  <si>
+    <t>Harpenden Common Golf Club- PGA Professional Rob Leonard</t>
+  </si>
+  <si>
+    <t>AL5 1BL</t>
+  </si>
+  <si>
+    <t>EP0130108000000100</t>
+  </si>
+  <si>
+    <t>1138464127</t>
+  </si>
+  <si>
+    <t>GCP000003</t>
   </si>
   <si>
     <t>Totals</t>
@@ -170,8 +1085,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:N10" headerRowCount="1">
-  <autoFilter ref="A7:N10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:N100" headerRowCount="1">
+  <autoFilter ref="A7:N100"/>
   <tableColumns count="14">
     <tableColumn id="1" name="TransactionDateTime"/>
     <tableColumn id="2" name="Value"/>
@@ -195,7 +1110,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" state="frozen" activePane="bottomLeft"/>
@@ -205,13 +1120,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.771818161010742" customWidth="1"/>
-    <col min="2" max="2" width="36.19605255126953" customWidth="1"/>
+    <col min="2" max="2" width="27.640247344970703" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="16.294299125671387" customWidth="1"/>
-    <col min="5" max="5" width="10.69301700592041" customWidth="1"/>
+    <col min="5" max="5" width="13.301553726196289" customWidth="1"/>
     <col min="6" max="6" width="17.799227714538574" customWidth="1"/>
     <col min="7" max="7" width="10.799415588378906" customWidth="1"/>
-    <col min="8" max="8" width="27.27151107788086" customWidth="1"/>
+    <col min="8" max="8" width="57.3199577331543" customWidth="1"/>
     <col min="9" max="9" width="11.174880027770996" customWidth="1"/>
     <col min="10" max="10" width="20.365819931030273" customWidth="1"/>
     <col min="11" max="11" width="11.634980201721191" customWidth="1"/>
@@ -254,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-100</v>
+        <v>-9851.99</v>
       </c>
     </row>
     <row r="6">
@@ -262,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="6">
-        <v>0</v>
+        <v>-8230.6796</v>
       </c>
     </row>
     <row r="7">
@@ -311,7 +1226,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7">
-        <v>45492.667083333334</v>
+        <v>45493.598761574074</v>
       </c>
       <c r="B8" s="4">
         <v>-100</v>
@@ -320,16 +1235,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>-84.4</v>
       </c>
       <c r="G8" s="0">
-        <v>489</v>
+        <v>48</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>23</v>
@@ -349,26 +1264,3932 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7">
+        <v>45493.51503472222</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-230</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-29.9</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-5.98</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-194.12</v>
+      </c>
+      <c r="G9" s="0">
+        <v>138</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5">
+      <c r="I9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7">
+        <v>45493.515023148146</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G10" s="0">
+        <v>138</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7">
+        <v>45492.667083333334</v>
+      </c>
+      <c r="B11" s="4">
         <v>-100</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10"/>
+      <c r="G11" s="0">
+        <v>489</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7">
+        <v>45491.52853009259</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-150</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-19.5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-3.9</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-126.6</v>
+      </c>
+      <c r="G12" s="0">
+        <v>271</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7">
+        <v>45488.52081018518</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-150</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-19.5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-3.9</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-126.6</v>
+      </c>
+      <c r="G13" s="0">
+        <v>38</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7">
+        <v>45488.449907407405</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-40</v>
+      </c>
+      <c r="C14" s="0">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-5.2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-1.04</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-33.76</v>
+      </c>
+      <c r="G14" s="0">
+        <v>334</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7">
+        <v>45478.70763888889</v>
+      </c>
+      <c r="B15" s="4">
+        <v>-40</v>
+      </c>
+      <c r="C15" s="0">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-5.2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>-1.04</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-33.76</v>
+      </c>
+      <c r="G15" s="0">
+        <v>334</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="8">
+        <v>45484.67911851852</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="4">
+        <v>33.76</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7">
+        <v>45478.57361111111</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C16" s="0">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G16" s="0">
+        <v>566</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7">
+        <v>45477.43819444445</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-200</v>
+      </c>
+      <c r="C17" s="0">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-26</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-5.2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-168.8</v>
+      </c>
+      <c r="G17" s="0">
+        <v>98</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="8">
+        <v>45484.681003125</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="4">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7">
+        <v>45468.66185185185</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-230</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-29.9</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-5.98</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-194.12</v>
+      </c>
+      <c r="G18" s="0">
+        <v>562</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="8">
+        <v>45476</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="4">
+        <v>194.12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7">
+        <v>45468.44982638889</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-50</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>-42.2</v>
+      </c>
+      <c r="G19" s="0">
+        <v>48</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="8">
+        <v>45476</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="4">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7">
+        <v>45468.390810185185</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-13</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-84.4</v>
+      </c>
+      <c r="G20" s="0">
+        <v>80</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="8">
+        <v>45476</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" s="4">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7">
+        <v>45465.479375</v>
+      </c>
+      <c r="B21" s="4">
+        <v>-155</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-20.15</v>
+      </c>
+      <c r="E21" s="4">
+        <v>-4.03</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-130.82</v>
+      </c>
+      <c r="G21" s="0">
+        <v>90</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="8">
+        <v>45467</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="4">
+        <v>130.82</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7">
+        <v>45463.516226851854</v>
+      </c>
+      <c r="B22" s="4">
+        <v>-48.99</v>
+      </c>
+      <c r="C22" s="0">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-6.3687</v>
+      </c>
+      <c r="E22" s="4">
+        <v>-1.2737</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-41.3476</v>
+      </c>
+      <c r="G22" s="0">
+        <v>48</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="8">
+        <v>45467</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" s="4">
+        <v>41.3475</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7">
+        <v>45463.510625</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-40</v>
+      </c>
+      <c r="C23" s="0">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-5.2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-1.04</v>
+      </c>
+      <c r="F23" s="4">
+        <v>-33.76</v>
+      </c>
+      <c r="G23" s="0">
+        <v>261</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="8">
+        <v>45467</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" s="4">
+        <v>33.76</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7">
+        <v>45463.419895833336</v>
+      </c>
+      <c r="B24" s="4">
+        <v>-20</v>
+      </c>
+      <c r="C24" s="0">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="E24" s="4">
+        <v>-0.52</v>
+      </c>
+      <c r="F24" s="4">
+        <v>-16.88</v>
+      </c>
+      <c r="G24" s="0">
+        <v>232</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="8">
+        <v>45467</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" s="4">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7">
+        <v>45463.41946759259</v>
+      </c>
+      <c r="B25" s="4">
+        <v>-20</v>
+      </c>
+      <c r="C25" s="0">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="E25" s="4">
+        <v>-0.52</v>
+      </c>
+      <c r="F25" s="4">
+        <v>-16.88</v>
+      </c>
+      <c r="G25" s="0">
+        <v>232</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="8">
+        <v>45467</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="4">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7">
+        <v>45463.41900462963</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-20</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="E26" s="4">
+        <v>-0.52</v>
+      </c>
+      <c r="F26" s="4">
+        <v>-16.88</v>
+      </c>
+      <c r="G26" s="0">
+        <v>232</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="8">
+        <v>45467</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N26" s="4">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7">
+        <v>45463.41809027778</v>
+      </c>
+      <c r="B27" s="4">
+        <v>-20</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="E27" s="4">
+        <v>-0.52</v>
+      </c>
+      <c r="F27" s="4">
+        <v>-16.88</v>
+      </c>
+      <c r="G27" s="0">
+        <v>232</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" s="8">
+        <v>45467</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" s="4">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7">
+        <v>45463.41694444444</v>
+      </c>
+      <c r="B28" s="4">
+        <v>-20</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-0.52</v>
+      </c>
+      <c r="F28" s="4">
+        <v>-16.88</v>
+      </c>
+      <c r="G28" s="0">
+        <v>232</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="8">
+        <v>45467</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N28" s="4">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7">
+        <v>45456.58577546296</v>
+      </c>
+      <c r="B29" s="4">
+        <v>-20</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="E29" s="4">
+        <v>-0.52</v>
+      </c>
+      <c r="F29" s="4">
+        <v>-16.88</v>
+      </c>
+      <c r="G29" s="0">
+        <v>388</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29" s="8">
+        <v>45461</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N29" s="4">
+        <v>80.18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7">
+        <v>45454.43200231482</v>
+      </c>
+      <c r="B30" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C30" s="0">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E30" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F30" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G30" s="0">
+        <v>59</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" s="8">
+        <v>45461</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="N30" s="4">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7">
+        <v>45453.68064814815</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-75</v>
+      </c>
+      <c r="C31" s="0">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>-9.75</v>
+      </c>
+      <c r="E31" s="4">
+        <v>-1.95</v>
+      </c>
+      <c r="F31" s="4">
+        <v>-63.3</v>
+      </c>
+      <c r="G31" s="0">
+        <v>388</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="L31" s="8">
+        <v>45461</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N31" s="4">
+        <v>80.18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7">
+        <v>45449.41070601852</v>
+      </c>
+      <c r="B32" s="4">
+        <v>-75</v>
+      </c>
+      <c r="C32" s="0">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-9.75</v>
+      </c>
+      <c r="E32" s="4">
+        <v>-1.95</v>
+      </c>
+      <c r="F32" s="4">
+        <v>-63.3</v>
+      </c>
+      <c r="G32" s="0">
+        <v>80</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="L32" s="8">
+        <v>45453</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="N32" s="4">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7">
+        <v>45448.42184027778</v>
+      </c>
+      <c r="B33" s="4">
+        <v>-140</v>
+      </c>
+      <c r="C33" s="0">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>-18.2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>-3.64</v>
+      </c>
+      <c r="F33" s="4">
+        <v>-118.16</v>
+      </c>
+      <c r="G33" s="0">
+        <v>71</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="L33" s="8">
+        <v>45453</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" s="4">
+        <v>118.16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7">
+        <v>45446.84405092592</v>
+      </c>
+      <c r="B34" s="4">
+        <v>-75</v>
+      </c>
+      <c r="C34" s="0">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>-9.75</v>
+      </c>
+      <c r="E34" s="4">
+        <v>-1.95</v>
+      </c>
+      <c r="F34" s="4">
+        <v>-63.3</v>
+      </c>
+      <c r="G34" s="0">
+        <v>388</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L34" s="8">
+        <v>45495.85629070602</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="N34" s="4">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7">
+        <v>45440.62006944444</v>
+      </c>
+      <c r="B35" s="4">
+        <v>-240</v>
+      </c>
+      <c r="C35" s="0">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>-31.2</v>
+      </c>
+      <c r="E35" s="4">
+        <v>-6.24</v>
+      </c>
+      <c r="F35" s="4">
+        <v>-202.56</v>
+      </c>
+      <c r="G35" s="0">
+        <v>388</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="L35" s="8">
+        <v>45446</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="N35" s="4">
+        <v>202.56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7">
+        <v>45440.57491898148</v>
+      </c>
+      <c r="B36" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C36" s="0">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>-13</v>
+      </c>
+      <c r="E36" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="F36" s="4">
+        <v>-84.4</v>
+      </c>
+      <c r="G36" s="0">
+        <v>90</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="L36" s="8">
+        <v>45446</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="N36" s="4">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7">
+        <v>45434.82644675926</v>
+      </c>
+      <c r="B37" s="4">
+        <v>-3</v>
+      </c>
+      <c r="C37" s="0">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>-0.39</v>
+      </c>
+      <c r="E37" s="4">
+        <v>-0.078</v>
+      </c>
+      <c r="F37" s="4">
+        <v>-2.532</v>
+      </c>
+      <c r="G37" s="0">
+        <v>2</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7">
+        <v>45434.716840277775</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-10</v>
+      </c>
+      <c r="C38" s="0">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="E38" s="4">
+        <v>-0.26</v>
+      </c>
+      <c r="F38" s="4">
+        <v>-8.44</v>
+      </c>
+      <c r="G38" s="0">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7">
+        <v>45427.3984375</v>
+      </c>
+      <c r="B39" s="4">
+        <v>-50</v>
+      </c>
+      <c r="C39" s="0">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="E39" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>-42.2</v>
+      </c>
+      <c r="G39" s="0">
+        <v>231</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="L39" s="8">
+        <v>45432</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="N39" s="4">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7">
+        <v>45421.39938657408</v>
+      </c>
+      <c r="B40" s="4">
+        <v>-45</v>
+      </c>
+      <c r="C40" s="0">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>-5.85</v>
+      </c>
+      <c r="E40" s="4">
+        <v>-1.17</v>
+      </c>
+      <c r="F40" s="4">
+        <v>-37.98</v>
+      </c>
+      <c r="G40" s="0">
+        <v>299</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L40" s="8">
+        <v>45426</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="N40" s="4">
+        <v>248.98</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7">
+        <v>45421.399375</v>
+      </c>
+      <c r="B41" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C41" s="0">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E41" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F41" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G41" s="0">
+        <v>299</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L41" s="8">
+        <v>45426</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="N41" s="4">
+        <v>248.98</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7">
+        <v>45419.716469907406</v>
+      </c>
+      <c r="B42" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C42" s="0">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E42" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F42" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G42" s="0">
+        <v>403</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L42" s="8">
+        <v>45426</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="N42" s="4">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7">
+        <v>45417.71576388889</v>
+      </c>
+      <c r="B43" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C43" s="0">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>-3.9</v>
+      </c>
+      <c r="E43" s="4">
+        <v>-0.78</v>
+      </c>
+      <c r="F43" s="4">
+        <v>-25.32</v>
+      </c>
+      <c r="G43" s="0">
+        <v>268</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="L43" s="8">
+        <v>45419</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="N43" s="4">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7">
+        <v>45417.49364583333</v>
+      </c>
+      <c r="B44" s="4">
+        <v>-200</v>
+      </c>
+      <c r="C44" s="0">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-26</v>
+      </c>
+      <c r="E44" s="4">
+        <v>-5.2</v>
+      </c>
+      <c r="F44" s="4">
+        <v>-168.8</v>
+      </c>
+      <c r="G44" s="0">
+        <v>388</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="L44" s="8">
+        <v>45419</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="N44" s="4">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7">
+        <v>45416.57041666667</v>
+      </c>
+      <c r="B45" s="4">
+        <v>-220</v>
+      </c>
+      <c r="C45" s="0">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>-28.6</v>
+      </c>
+      <c r="E45" s="4">
+        <v>-5.72</v>
+      </c>
+      <c r="F45" s="4">
+        <v>-185.68</v>
+      </c>
+      <c r="G45" s="0">
+        <v>90</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="L45" s="8">
+        <v>45419</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="N45" s="4">
+        <v>248.98</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7">
+        <v>45411.594976851855</v>
+      </c>
+      <c r="B46" s="4">
+        <v>-75</v>
+      </c>
+      <c r="C46" s="0">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>-9.75</v>
+      </c>
+      <c r="E46" s="4">
+        <v>-1.95</v>
+      </c>
+      <c r="F46" s="4">
+        <v>-63.3</v>
+      </c>
+      <c r="G46" s="0">
+        <v>90</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="L46" s="8">
+        <v>45419</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="N46" s="4">
+        <v>248.98</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7">
+        <v>45411.51733796296</v>
+      </c>
+      <c r="B47" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C47" s="0">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E47" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F47" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G47" s="0">
+        <v>91</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="L47" s="8">
+        <v>45419</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="N47" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7">
+        <v>45407.56542824074</v>
+      </c>
+      <c r="B48" s="4">
+        <v>-50</v>
+      </c>
+      <c r="C48" s="0">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="E48" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="F48" s="4">
+        <v>-42.2</v>
+      </c>
+      <c r="G48" s="0">
+        <v>388</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="L48" s="8">
+        <v>45412</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="N48" s="4">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7">
+        <v>45405.51136574074</v>
+      </c>
+      <c r="B49" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C49" s="0">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E49" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F49" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G49" s="0">
+        <v>388</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="L49" s="8">
+        <v>45412</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="N49" s="4">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7">
+        <v>45405.43412037037</v>
+      </c>
+      <c r="B50" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C50" s="0">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E50" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F50" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G50" s="0">
+        <v>53</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L50" s="8">
+        <v>45415</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="N50" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7">
+        <v>45405.43363425926</v>
+      </c>
+      <c r="B51" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C51" s="0">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E51" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F51" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G51" s="0">
+        <v>53</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="L51" s="8">
+        <v>45415</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="N51" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7">
+        <v>45405.42738425926</v>
+      </c>
+      <c r="B52" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C52" s="0">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E52" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F52" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G52" s="0">
+        <v>53</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="L52" s="8">
+        <v>45415</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="N52" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7">
+        <v>45405.42702546297</v>
+      </c>
+      <c r="B53" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C53" s="0">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E53" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F53" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G53" s="0">
+        <v>53</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L53" s="8">
+        <v>45415</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="N53" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7">
+        <v>45405.42673611111</v>
+      </c>
+      <c r="B54" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C54" s="0">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E54" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F54" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G54" s="0">
+        <v>53</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="L54" s="8">
+        <v>45415</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="N54" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7">
+        <v>45405.42643518518</v>
+      </c>
+      <c r="B55" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C55" s="0">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E55" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F55" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G55" s="0">
+        <v>53</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="L55" s="8">
+        <v>45415</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="N55" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7">
+        <v>45405.425578703704</v>
+      </c>
+      <c r="B56" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C56" s="0">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E56" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F56" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G56" s="0">
+        <v>53</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="L56" s="8">
+        <v>45415</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="N56" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7">
+        <v>45405.4252662037</v>
+      </c>
+      <c r="B57" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C57" s="0">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E57" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F57" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G57" s="0">
+        <v>53</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="L57" s="8">
+        <v>45415</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="N57" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7">
+        <v>45405.424733796295</v>
+      </c>
+      <c r="B58" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C58" s="0">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E58" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F58" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G58" s="0">
+        <v>53</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="L58" s="8">
+        <v>45415</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="N58" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7">
+        <v>45405.42259259259</v>
+      </c>
+      <c r="B59" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C59" s="0">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E59" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F59" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G59" s="0">
+        <v>53</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="L59" s="8">
+        <v>45415</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="N59" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7">
+        <v>45404.53502314815</v>
+      </c>
+      <c r="B60" s="4">
+        <v>-50</v>
+      </c>
+      <c r="C60" s="0">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="E60" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="F60" s="4">
+        <v>-42.2</v>
+      </c>
+      <c r="G60" s="0">
+        <v>296</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="L60" s="8">
+        <v>45412</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="N60" s="4">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7">
+        <v>45402.580972222226</v>
+      </c>
+      <c r="B61" s="4">
+        <v>-15</v>
+      </c>
+      <c r="C61" s="0">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>-1.95</v>
+      </c>
+      <c r="E61" s="4">
+        <v>-0.39</v>
+      </c>
+      <c r="F61" s="4">
+        <v>-12.66</v>
+      </c>
+      <c r="G61" s="0">
+        <v>388</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="L61" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="N61" s="4">
+        <v>497.96</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7">
+        <v>45402.580659722225</v>
+      </c>
+      <c r="B62" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C62" s="0">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E62" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F62" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G62" s="0">
+        <v>388</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="L62" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="N62" s="4">
+        <v>497.96</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7">
+        <v>45402.580300925925</v>
+      </c>
+      <c r="B63" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C63" s="0">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E63" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F63" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G63" s="0">
+        <v>388</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="L63" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="N63" s="4">
+        <v>497.96</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7">
+        <v>45401.42474537037</v>
+      </c>
+      <c r="B64" s="4">
+        <v>-50</v>
+      </c>
+      <c r="C64" s="0">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="E64" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="F64" s="4">
+        <v>-42.2</v>
+      </c>
+      <c r="G64" s="0">
+        <v>388</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="L64" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="N64" s="4">
+        <v>497.96</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7">
+        <v>45401.39800925926</v>
+      </c>
+      <c r="B65" s="4">
+        <v>-50</v>
+      </c>
+      <c r="C65" s="0">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="E65" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="F65" s="4">
+        <v>-42.2</v>
+      </c>
+      <c r="G65" s="0">
+        <v>71</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L65" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="N65" s="4">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7">
+        <v>45398.66753472222</v>
+      </c>
+      <c r="B66" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C66" s="0">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E66" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F66" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G66" s="0">
+        <v>388</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="L66" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="N66" s="4">
+        <v>497.96</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7">
+        <v>45397.704930555556</v>
+      </c>
+      <c r="B67" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C67" s="0">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E67" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F67" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G67" s="0">
+        <v>89</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="L67" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="N67" s="4">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7">
+        <v>45395.57090277778</v>
+      </c>
+      <c r="B68" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C68" s="0">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4">
+        <v>-13</v>
+      </c>
+      <c r="E68" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="F68" s="4">
+        <v>-84.4</v>
+      </c>
+      <c r="G68" s="0">
+        <v>270</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="L68" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="N68" s="4">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7">
+        <v>45394.62788194444</v>
+      </c>
+      <c r="B69" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C69" s="0">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4">
+        <v>-13</v>
+      </c>
+      <c r="E69" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="F69" s="4">
+        <v>-84.4</v>
+      </c>
+      <c r="G69" s="0">
+        <v>263</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="L69" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="N69" s="4">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7">
+        <v>45391.903275462966</v>
+      </c>
+      <c r="B70" s="4">
+        <v>-175</v>
+      </c>
+      <c r="C70" s="0">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
+        <v>-22.75</v>
+      </c>
+      <c r="E70" s="4">
+        <v>-4.55</v>
+      </c>
+      <c r="F70" s="4">
+        <v>-147.7</v>
+      </c>
+      <c r="G70" s="0">
+        <v>168</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="L70" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="N70" s="4">
+        <v>147.7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7">
+        <v>45390.840902777774</v>
+      </c>
+      <c r="B71" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C71" s="0">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>-13</v>
+      </c>
+      <c r="E71" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="F71" s="4">
+        <v>-84.4</v>
+      </c>
+      <c r="G71" s="0">
+        <v>270</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="L71" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="N71" s="4">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7">
+        <v>45387.82561342593</v>
+      </c>
+      <c r="B72" s="4">
+        <v>-200</v>
+      </c>
+      <c r="C72" s="0">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4">
+        <v>-26</v>
+      </c>
+      <c r="E72" s="4">
+        <v>-5.2</v>
+      </c>
+      <c r="F72" s="4">
+        <v>-168.8</v>
+      </c>
+      <c r="G72" s="0">
+        <v>71</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L72" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="N72" s="4">
+        <v>232.1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7">
+        <v>45387.82560185185</v>
+      </c>
+      <c r="B73" s="4">
+        <v>-50</v>
+      </c>
+      <c r="C73" s="0">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="E73" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="F73" s="4">
+        <v>-42.2</v>
+      </c>
+      <c r="G73" s="0">
+        <v>71</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="L73" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="N73" s="4">
+        <v>232.1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7">
+        <v>45384.56805555556</v>
+      </c>
+      <c r="B74" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C74" s="0">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4">
+        <v>-13</v>
+      </c>
+      <c r="E74" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="F74" s="4">
+        <v>-84.4</v>
+      </c>
+      <c r="G74" s="0">
+        <v>83</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="L74" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="N74" s="4">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7">
+        <v>45381.55064814815</v>
+      </c>
+      <c r="B75" s="4">
+        <v>-75</v>
+      </c>
+      <c r="C75" s="0">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4">
+        <v>-9.75</v>
+      </c>
+      <c r="E75" s="4">
+        <v>-1.95</v>
+      </c>
+      <c r="F75" s="4">
+        <v>-63.3</v>
+      </c>
+      <c r="G75" s="0">
+        <v>512</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="L75" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="N75" s="4">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7">
+        <v>45379.54326388889</v>
+      </c>
+      <c r="B76" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C76" s="0">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E76" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F76" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G76" s="0">
+        <v>71</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="L76" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="N76" s="4">
+        <v>232.1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7">
+        <v>45379.393125</v>
+      </c>
+      <c r="B77" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C77" s="0">
+        <v>1</v>
+      </c>
+      <c r="D77" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E77" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F77" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G77" s="0">
+        <v>200</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="L77" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M77" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="N77" s="4">
+        <v>654.1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7">
+        <v>45379.39261574074</v>
+      </c>
+      <c r="B78" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C78" s="0">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E78" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F78" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G78" s="0">
+        <v>200</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="L78" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="N78" s="4">
+        <v>654.1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7">
+        <v>45379.39163194445</v>
+      </c>
+      <c r="B79" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C79" s="0">
+        <v>1</v>
+      </c>
+      <c r="D79" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E79" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F79" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G79" s="0">
+        <v>200</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="L79" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="N79" s="4">
+        <v>654.1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7">
+        <v>45377.358090277776</v>
+      </c>
+      <c r="B80" s="4">
+        <v>-220</v>
+      </c>
+      <c r="C80" s="0">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4">
+        <v>-28.6</v>
+      </c>
+      <c r="E80" s="4">
+        <v>-5.72</v>
+      </c>
+      <c r="F80" s="4">
+        <v>-185.68</v>
+      </c>
+      <c r="G80" s="0">
+        <v>33</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="L80" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="N80" s="4">
+        <v>396.68</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7">
+        <v>45377.358078703706</v>
+      </c>
+      <c r="B81" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C81" s="0">
+        <v>1</v>
+      </c>
+      <c r="D81" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E81" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F81" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G81" s="0">
+        <v>33</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="L81" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="N81" s="4">
+        <v>396.68</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7">
+        <v>45375.46359953703</v>
+      </c>
+      <c r="B82" s="4">
+        <v>-190</v>
+      </c>
+      <c r="C82" s="0">
+        <v>1</v>
+      </c>
+      <c r="D82" s="4">
+        <v>-24.7</v>
+      </c>
+      <c r="E82" s="4">
+        <v>-4.94</v>
+      </c>
+      <c r="F82" s="4">
+        <v>-160.36</v>
+      </c>
+      <c r="G82" s="0">
+        <v>279</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="L82" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="N82" s="4">
+        <v>371.36</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7">
+        <v>45375.46271990741</v>
+      </c>
+      <c r="B83" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C83" s="0">
+        <v>1</v>
+      </c>
+      <c r="D83" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E83" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F83" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G83" s="0">
+        <v>279</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="L83" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="N83" s="4">
+        <v>371.36</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7">
+        <v>45372.97332175926</v>
+      </c>
+      <c r="B84" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C84" s="0">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4">
+        <v>-13</v>
+      </c>
+      <c r="E84" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="F84" s="4">
+        <v>-84.4</v>
+      </c>
+      <c r="G84" s="0">
+        <v>388</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="L84" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="N84" s="4">
+        <v>232.1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7">
+        <v>45366.4012037037</v>
+      </c>
+      <c r="B85" s="4">
+        <v>-50</v>
+      </c>
+      <c r="C85" s="0">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="E85" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="F85" s="4">
+        <v>-42.2</v>
+      </c>
+      <c r="G85" s="0">
+        <v>512</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="L85" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="N85" s="4">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7">
+        <v>45364.48207175926</v>
+      </c>
+      <c r="B86" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C86" s="0">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4">
+        <v>-13</v>
+      </c>
+      <c r="E86" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="F86" s="4">
+        <v>-84.4</v>
+      </c>
+      <c r="G86" s="0">
+        <v>371</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="L86" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="N86" s="4">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7">
+        <v>45359.451828703706</v>
+      </c>
+      <c r="B87" s="4">
+        <v>-175</v>
+      </c>
+      <c r="C87" s="0">
+        <v>1</v>
+      </c>
+      <c r="D87" s="4">
+        <v>-22.75</v>
+      </c>
+      <c r="E87" s="4">
+        <v>-4.55</v>
+      </c>
+      <c r="F87" s="4">
+        <v>-147.7</v>
+      </c>
+      <c r="G87" s="0">
+        <v>388</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="L87" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="N87" s="4">
+        <v>232.1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7">
+        <v>45348.86231481482</v>
+      </c>
+      <c r="B88" s="4">
+        <v>-135</v>
+      </c>
+      <c r="C88" s="0">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4">
+        <v>-17.55</v>
+      </c>
+      <c r="E88" s="4">
+        <v>-3.51</v>
+      </c>
+      <c r="F88" s="4">
+        <v>-113.94</v>
+      </c>
+      <c r="G88" s="0">
+        <v>236</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="L88" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="N88" s="4">
+        <v>113.94</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7">
+        <v>45347.45866898148</v>
+      </c>
+      <c r="B89" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C89" s="0">
+        <v>1</v>
+      </c>
+      <c r="D89" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E89" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F89" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G89" s="0">
+        <v>20</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="L89" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="N89" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7">
+        <v>45320.705555555556</v>
+      </c>
+      <c r="B90" s="4">
+        <v>-40</v>
+      </c>
+      <c r="C90" s="0">
+        <v>1</v>
+      </c>
+      <c r="D90" s="4">
+        <v>-5.2</v>
+      </c>
+      <c r="E90" s="4">
+        <v>-1.04</v>
+      </c>
+      <c r="F90" s="4">
+        <v>-33.76</v>
+      </c>
+      <c r="G90" s="0">
+        <v>248</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="L90" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M90" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="N90" s="4">
+        <v>33.76</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7">
+        <v>45310.54652777778</v>
+      </c>
+      <c r="B91" s="4">
+        <v>-110</v>
+      </c>
+      <c r="C91" s="0">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4">
+        <v>-14.3</v>
+      </c>
+      <c r="E91" s="4">
+        <v>-2.86</v>
+      </c>
+      <c r="F91" s="4">
+        <v>-92.84</v>
+      </c>
+      <c r="G91" s="0">
+        <v>89</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="L91" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M91" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="N91" s="4">
+        <v>92.84</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7">
+        <v>45304.50069444445</v>
+      </c>
+      <c r="B92" s="4">
+        <v>-25</v>
+      </c>
+      <c r="C92" s="0">
+        <v>1</v>
+      </c>
+      <c r="D92" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="E92" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="F92" s="4">
+        <v>-21.1</v>
+      </c>
+      <c r="G92" s="0">
+        <v>200</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="L92" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="N92" s="4">
+        <v>654.1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7">
+        <v>45300.90069444444</v>
+      </c>
+      <c r="B93" s="4">
+        <v>-150</v>
+      </c>
+      <c r="C93" s="0">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4">
+        <v>-19.5</v>
+      </c>
+      <c r="E93" s="4">
+        <v>-3.9</v>
+      </c>
+      <c r="F93" s="4">
+        <v>-126.6</v>
+      </c>
+      <c r="G93" s="0">
+        <v>327</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="L93" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="N93" s="4">
+        <v>126.6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7">
+        <v>45299.410416666666</v>
+      </c>
+      <c r="B94" s="4">
+        <v>-200</v>
+      </c>
+      <c r="C94" s="0">
+        <v>1</v>
+      </c>
+      <c r="D94" s="4">
+        <v>-26</v>
+      </c>
+      <c r="E94" s="4">
+        <v>-5.2</v>
+      </c>
+      <c r="F94" s="4">
+        <v>-168.8</v>
+      </c>
+      <c r="G94" s="0">
+        <v>374</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="L94" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="N94" s="4">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7">
+        <v>45294.45277777778</v>
+      </c>
+      <c r="B95" s="4">
+        <v>-50</v>
+      </c>
+      <c r="C95" s="0">
+        <v>1</v>
+      </c>
+      <c r="D95" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="E95" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="F95" s="4">
+        <v>-42.2</v>
+      </c>
+      <c r="G95" s="0">
+        <v>1</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="L95" s="8">
+        <v>45404</v>
+      </c>
+      <c r="N95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7">
+        <v>45266.680555555555</v>
+      </c>
+      <c r="B96" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C96" s="0">
+        <v>1</v>
+      </c>
+      <c r="D96" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E96" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F96" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G96" s="0">
+        <v>141</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="L96" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="N96" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7">
+        <v>45259.41805555556</v>
+      </c>
+      <c r="B97" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C97" s="0">
+        <v>1</v>
+      </c>
+      <c r="D97" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="E97" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="F97" s="4">
+        <v>-211</v>
+      </c>
+      <c r="G97" s="0">
+        <v>1</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="L97" s="8">
+        <v>45404</v>
+      </c>
+      <c r="N97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7">
+        <v>45231.40138888889</v>
+      </c>
+      <c r="B98" s="4">
+        <v>-200</v>
+      </c>
+      <c r="C98" s="0">
+        <v>1</v>
+      </c>
+      <c r="D98" s="4">
+        <v>-26</v>
+      </c>
+      <c r="E98" s="4">
+        <v>-5.2</v>
+      </c>
+      <c r="F98" s="4">
+        <v>-168.8</v>
+      </c>
+      <c r="G98" s="0">
+        <v>47</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="L98" s="8">
+        <v>45407</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="N98" s="4">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B99" s="5">
+        <v>-9851.99</v>
+      </c>
+      <c r="C99" s="1">
+        <v>91</v>
+      </c>
+      <c r="D99" s="5">
+        <v>-1267.7587</v>
+      </c>
+      <c r="E99" s="5">
+        <v>-253.5517</v>
+      </c>
+      <c r="F99" s="5">
+        <v>-8230.6796</v>
+      </c>
+    </row>
+    <row r="100"/>
   </sheetData>
   <headerFooter/>
   <tableParts>

--- a/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
@@ -7,12 +7,12 @@
   <sheets>
     <sheet name="Redemptions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>REDEMPTIONS REPORT</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">STORE NAME: </t>
   </si>
   <si>
-    <t>0 | All Stores</t>
+    <t>80 | Vale Royal Abbey Golf Club- PGA Professional Ben Derbyshire</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT NAME: </t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>01-Aug-2023 To 31-Aug-2023</t>
+    <t>24-Jun-2024 To 30-Jun-2024</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL FACE VALUE: </t>
@@ -81,14 +81,37 @@
   </si>
   <si>
     <t>Statement Amt</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Vale Royal Abbey Golf Club- PGA Professional Ben Derbyshire</t>
+  </si>
+  <si>
+    <t>CW8 2BA</t>
+  </si>
+  <si>
+    <t>EP0130108000000569</t>
+  </si>
+  <si>
+    <t>1275910055</t>
+  </si>
+  <si>
+    <t>GCP64</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="£#,##0.00;[Red](£#,##0.00)"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -132,14 +155,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" applyFont="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0"/>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,10 +175,33 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:N10" headerRowCount="1">
+  <autoFilter ref="A7:N10"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="TransactionDateTime"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Count"/>
+    <tableColumn id="4" name="Product Comm"/>
+    <tableColumn id="5" name="VAT Due"/>
+    <tableColumn id="6" name="Amount Payable"/>
+    <tableColumn id="7" name="Store No"/>
+    <tableColumn id="8" name="Store Name"/>
+    <tableColumn id="9" name="Postcode"/>
+    <tableColumn id="10" name="Transaction ID"/>
+    <tableColumn id="11" name="Card ID"/>
+    <tableColumn id="12" name="Statement Date"/>
+    <tableColumn id="13" name="Statement No."/>
+    <tableColumn id="14" name="Statement Amt"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" state="frozen" activePane="bottomLeft"/>
@@ -161,19 +211,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.771818161010742" customWidth="1"/>
-    <col min="2" max="2" width="29.069934844970703" customWidth="1"/>
+    <col min="2" max="2" width="65.4159164428711" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.044299125671387" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.549227714538574" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.296345710754395" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.606428146362305" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.861727714538574" customWidth="1"/>
-    <col min="13" max="13" width="13.758864402770996" customWidth="1"/>
-    <col min="14" max="14" width="14.412603378295898" customWidth="1"/>
+    <col min="4" max="4" width="16.294299125671387" customWidth="1"/>
+    <col min="5" max="5" width="11.114240646362305" customWidth="1"/>
+    <col min="6" max="6" width="17.799227714538574" customWidth="1"/>
+    <col min="7" max="7" width="10.799415588378906" customWidth="1"/>
+    <col min="8" max="8" width="54.43082046508789" customWidth="1"/>
+    <col min="9" max="9" width="11.174880027770996" customWidth="1"/>
+    <col min="10" max="10" width="20.365819931030273" customWidth="1"/>
+    <col min="11" max="11" width="11.634980201721191" customWidth="1"/>
+    <col min="12" max="12" width="17.111727714538574" customWidth="1"/>
+    <col min="13" max="13" width="16.008864402770996" customWidth="1"/>
+    <col min="14" max="14" width="16.6626033782959" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -209,16 +259,16 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
+      <c r="B5" s="6">
+        <v>-100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
+      <c r="B6" s="6">
+        <v>-84.4</v>
       </c>
     </row>
     <row r="7">
@@ -265,7 +315,75 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="7">
+        <v>45468.390810185185</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C8" s="0">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-13</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-84.4</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="8">
+        <v>45692.51587704861</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="4">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-13</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-2.6</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-84.4</v>
+      </c>
+    </row>
+    <row r="10"/>
   </sheetData>
   <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>REDEMPTIONS REPORT</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">STORE NAME: </t>
   </si>
   <si>
-    <t>80 | Vale Royal Abbey Golf Club- PGA Professional Ben Derbyshire</t>
+    <t>191 | Rochdale Golf Club- PGA Professional Andrew Laverty</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT NAME: </t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>24-Jun-2024 To 30-Jun-2024</t>
+    <t>14-Jul-2025 To 20-Jul-2025</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL FACE VALUE: </t>
@@ -83,22 +83,37 @@
     <t>Statement Amt</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Vale Royal Abbey Golf Club- PGA Professional Ben Derbyshire</t>
-  </si>
-  <si>
-    <t>CW8 2BA</t>
-  </si>
-  <si>
-    <t>EP0130108000000569</t>
-  </si>
-  <si>
-    <t>1275910055</t>
-  </si>
-  <si>
-    <t>GCP64</t>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Rochdale Golf Club- PGA Professional Andrew Laverty</t>
+  </si>
+  <si>
+    <t>OL11 5YR</t>
+  </si>
+  <si>
+    <t>EP0130108000003141</t>
+  </si>
+  <si>
+    <t>1525200785</t>
+  </si>
+  <si>
+    <t>EP0130108000003126</t>
+  </si>
+  <si>
+    <t>1525200784</t>
+  </si>
+  <si>
+    <t>EP0130108000003122</t>
+  </si>
+  <si>
+    <t>1525200786</t>
+  </si>
+  <si>
+    <t>EP0130108000003118</t>
+  </si>
+  <si>
+    <t>1525200787</t>
   </si>
   <si>
     <t>Totals</t>
@@ -176,8 +191,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:N10" headerRowCount="1">
-  <autoFilter ref="A7:N10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:N13" headerRowCount="1">
+  <autoFilter ref="A7:N13"/>
   <tableColumns count="14">
     <tableColumn id="1" name="TransactionDateTime"/>
     <tableColumn id="2" name="Value"/>
@@ -201,7 +216,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" state="frozen" activePane="bottomLeft"/>
@@ -211,13 +226,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.771818161010742" customWidth="1"/>
-    <col min="2" max="2" width="65.4159164428711" customWidth="1"/>
+    <col min="2" max="2" width="59.0543098449707" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="16.294299125671387" customWidth="1"/>
-    <col min="5" max="5" width="11.114240646362305" customWidth="1"/>
+    <col min="5" max="5" width="10.69301700592041" customWidth="1"/>
     <col min="6" max="6" width="17.799227714538574" customWidth="1"/>
     <col min="7" max="7" width="10.799415588378906" customWidth="1"/>
-    <col min="8" max="8" width="54.43082046508789" customWidth="1"/>
+    <col min="8" max="8" width="47.719512939453125" customWidth="1"/>
     <col min="9" max="9" width="11.174880027770996" customWidth="1"/>
     <col min="10" max="10" width="20.365819931030273" customWidth="1"/>
     <col min="11" max="11" width="11.634980201721191" customWidth="1"/>
@@ -260,7 +275,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-100</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="6">
@@ -268,7 +283,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="6">
-        <v>-84.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -317,22 +332,22 @@
     </row>
     <row r="8">
       <c r="A8" s="7">
-        <v>45468.390810185185</v>
+        <v>45852.721550925926</v>
       </c>
       <c r="B8" s="4">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="C8" s="0">
         <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>-84.4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>23</v>
@@ -349,37 +364,153 @@
       <c r="K8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="8">
-        <v>45692.51587704861</v>
-      </c>
-      <c r="M8" s="0" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8"/>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7">
+        <v>45852.519212962965</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-250</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="4">
-        <v>84.4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="K9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5">
+      <c r="L9" s="8"/>
+      <c r="M9"/>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7">
+        <v>45852.51866898148</v>
+      </c>
+      <c r="B10" s="4">
         <v>-100</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="0">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
-        <v>-13</v>
-      </c>
-      <c r="E9" s="5">
-        <v>-2.6</v>
-      </c>
-      <c r="F9" s="5">
-        <v>-84.4</v>
-      </c>
-    </row>
-    <row r="10"/>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10"/>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7">
+        <v>45852.517905092594</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11"/>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-500</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13"/>
   </sheetData>
   <headerFooter/>
   <tableParts>

--- a/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/RedemptionsReporting.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>REDEMPTIONS REPORT</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">STORE NAME: </t>
   </si>
   <si>
-    <t>191 | Rochdale Golf Club- PGA Professional Andrew Laverty</t>
+    <t>261 | Bondhay Golf Club</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT NAME: </t>
@@ -83,37 +83,22 @@
     <t>Statement Amt</t>
   </si>
   <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>Rochdale Golf Club- PGA Professional Andrew Laverty</t>
-  </si>
-  <si>
-    <t>OL11 5YR</t>
-  </si>
-  <si>
-    <t>EP0130108000003141</t>
-  </si>
-  <si>
-    <t>1525200785</t>
-  </si>
-  <si>
-    <t>EP0130108000003126</t>
-  </si>
-  <si>
-    <t>1525200784</t>
-  </si>
-  <si>
-    <t>EP0130108000003122</t>
-  </si>
-  <si>
-    <t>1525200786</t>
-  </si>
-  <si>
-    <t>EP0130108000003118</t>
-  </si>
-  <si>
-    <t>1525200787</t>
+    <t>261</t>
+  </si>
+  <si>
+    <t>Bondhay Golf Club</t>
+  </si>
+  <si>
+    <t>S80 3EH</t>
+  </si>
+  <si>
+    <t>EP0130108000003184</t>
+  </si>
+  <si>
+    <t>1295188330</t>
+  </si>
+  <si>
+    <t>GCP0000273</t>
   </si>
   <si>
     <t>Totals</t>
@@ -191,8 +176,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:N13" headerRowCount="1">
-  <autoFilter ref="A7:N13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:N10" headerRowCount="1">
+  <autoFilter ref="A7:N10"/>
   <tableColumns count="14">
     <tableColumn id="1" name="TransactionDateTime"/>
     <tableColumn id="2" name="Value"/>
@@ -216,7 +201,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" state="frozen" activePane="bottomLeft"/>
@@ -226,13 +211,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.771818161010742" customWidth="1"/>
-    <col min="2" max="2" width="59.0543098449707" customWidth="1"/>
+    <col min="2" max="2" width="26.699399948120117" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="16.294299125671387" customWidth="1"/>
-    <col min="5" max="5" width="10.69301700592041" customWidth="1"/>
+    <col min="5" max="5" width="11.114240646362305" customWidth="1"/>
     <col min="6" max="6" width="17.799227714538574" customWidth="1"/>
     <col min="7" max="7" width="10.799415588378906" customWidth="1"/>
-    <col min="8" max="8" width="47.719512939453125" customWidth="1"/>
+    <col min="8" max="8" width="16.963106155395508" customWidth="1"/>
     <col min="9" max="9" width="11.174880027770996" customWidth="1"/>
     <col min="10" max="10" width="20.365819931030273" customWidth="1"/>
     <col min="11" max="11" width="11.634980201721191" customWidth="1"/>
@@ -275,7 +260,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-500</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="6">
@@ -283,7 +268,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="6">
-        <v>0</v>
+        <v>-42.2</v>
       </c>
     </row>
     <row r="7">
@@ -332,7 +317,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7">
-        <v>45852.721550925926</v>
+        <v>45855.610972222225</v>
       </c>
       <c r="B8" s="4">
         <v>-50</v>
@@ -341,13 +326,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>-6.5</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>-42.2</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>23</v>
@@ -364,153 +349,37 @@
       <c r="K8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8"/>
+      <c r="L8" s="8">
+        <v>45862.51995459491</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="N8" s="4">
-        <v>0</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7">
-        <v>45852.519212962965</v>
-      </c>
-      <c r="B9" s="4">
-        <v>-250</v>
-      </c>
-      <c r="C9" s="0">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-50</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9"/>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7">
-        <v>45852.51866898148</v>
-      </c>
-      <c r="B10" s="4">
-        <v>-100</v>
-      </c>
-      <c r="C10" s="0">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10"/>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7">
-        <v>45852.517905092594</v>
-      </c>
-      <c r="B11" s="4">
-        <v>-100</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11"/>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="5">
-        <v>-500</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13"/>
+      <c r="D9" s="5">
+        <v>-6.5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-1.3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-42.2</v>
+      </c>
+    </row>
+    <row r="10"/>
   </sheetData>
   <headerFooter/>
   <tableParts>
